--- a/AAII_Financials/Yearly/CVAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVAC_YR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>20600</v>
+        <v>20800</v>
       </c>
       <c r="E8" s="3">
-        <v>15200</v>
+        <v>15400</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -739,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>33100</v>
+        <v>33500</v>
       </c>
       <c r="E9" s="3">
-        <v>21000</v>
+        <v>21200</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -766,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-12500</v>
+        <v>-12600</v>
       </c>
       <c r="E10" s="3">
         <v>-5800</v>
@@ -806,10 +806,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>57800</v>
+        <v>51200</v>
       </c>
       <c r="E12" s="3">
-        <v>48000</v>
+        <v>48500</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -887,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E15" s="3">
         <v>3400</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>138300</v>
+        <v>139900</v>
       </c>
       <c r="E17" s="3">
-        <v>101400</v>
+        <v>102500</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-117700</v>
+        <v>-119000</v>
       </c>
       <c r="E18" s="3">
-        <v>-86100</v>
+        <v>-87100</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-109000</v>
+        <v>-110200</v>
       </c>
       <c r="E21" s="3">
-        <v>-79700</v>
+        <v>-80600</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-118400</v>
+        <v>-119800</v>
       </c>
       <c r="E23" s="3">
-        <v>-84100</v>
+        <v>-85100</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-118100</v>
+        <v>-119500</v>
       </c>
       <c r="E26" s="3">
-        <v>-84300</v>
+        <v>-85200</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-118100</v>
+        <v>-119500</v>
       </c>
       <c r="E27" s="3">
-        <v>-84300</v>
+        <v>-85200</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-118100</v>
+        <v>-119500</v>
       </c>
       <c r="E33" s="3">
-        <v>-84300</v>
+        <v>-85200</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-118100</v>
+        <v>-119500</v>
       </c>
       <c r="E35" s="3">
-        <v>-84300</v>
+        <v>-85200</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1481,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>36300</v>
+        <v>36700</v>
       </c>
       <c r="E41" s="3">
-        <v>25300</v>
+        <v>25600</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1511,7 +1511,7 @@
         <v>1700</v>
       </c>
       <c r="E42" s="3">
-        <v>46400</v>
+        <v>47000</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1535,10 +1535,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20900</v>
+        <v>21200</v>
       </c>
       <c r="E43" s="3">
-        <v>10200</v>
+        <v>10300</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1562,7 +1562,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="E44" s="3">
         <v>3500</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>67600</v>
+        <v>68400</v>
       </c>
       <c r="E46" s="3">
-        <v>86400</v>
+        <v>87400</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1643,7 +1643,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="E47" s="3">
         <v>900</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>73000</v>
+        <v>73800</v>
       </c>
       <c r="E48" s="3">
-        <v>47900</v>
+        <v>48400</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1697,10 +1697,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6700</v>
+        <v>6800</v>
       </c>
       <c r="E49" s="3">
-        <v>7300</v>
+        <v>7400</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1778,10 +1778,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="E52" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1832,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>154500</v>
+        <v>156200</v>
       </c>
       <c r="E54" s="3">
-        <v>148600</v>
+        <v>150300</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6300</v>
+        <v>6400</v>
       </c>
       <c r="E57" s="3">
-        <v>10700</v>
+        <v>10800</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1939,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24500</v>
+        <v>24800</v>
       </c>
       <c r="E59" s="3">
-        <v>22500</v>
+        <v>22800</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1966,10 +1966,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>33200</v>
+        <v>33600</v>
       </c>
       <c r="E60" s="3">
-        <v>33300</v>
+        <v>33600</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -1993,7 +1993,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>91300</v>
+        <v>92300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>80700</v>
+        <v>81600</v>
       </c>
       <c r="E62" s="3">
-        <v>77400</v>
+        <v>78300</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2128,10 +2128,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>205100</v>
+        <v>207400</v>
       </c>
       <c r="E66" s="3">
-        <v>110700</v>
+        <v>111900</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-51500</v>
+        <v>-52100</v>
       </c>
       <c r="E72" s="3">
-        <v>37100</v>
+        <v>37500</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-50600</v>
+        <v>-51200</v>
       </c>
       <c r="E76" s="3">
-        <v>38000</v>
+        <v>38400</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-118100</v>
+        <v>-119500</v>
       </c>
       <c r="E81" s="3">
-        <v>-84300</v>
+        <v>-85200</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2510,7 +2510,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8500</v>
+        <v>8600</v>
       </c>
       <c r="E83" s="3">
         <v>4500</v>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-102900</v>
+        <v>-104000</v>
       </c>
       <c r="E89" s="3">
-        <v>-87700</v>
+        <v>-88700</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2712,10 +2712,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13200</v>
+        <v>-13400</v>
       </c>
       <c r="E91" s="3">
-        <v>-11100</v>
+        <v>-11300</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -2793,10 +2793,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>33300</v>
+        <v>33700</v>
       </c>
       <c r="E94" s="3">
-        <v>-5000</v>
+        <v>-5100</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2941,7 +2941,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>80400</v>
+        <v>81300</v>
       </c>
       <c r="E100" s="3">
         <v>-100</v>
@@ -2995,10 +2995,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>11000</v>
+        <v>11100</v>
       </c>
       <c r="E102" s="3">
-        <v>-92600</v>
+        <v>-93600</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CVAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVAC_YR_FIN.xlsx
@@ -712,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>20800</v>
+        <v>20500</v>
       </c>
       <c r="E8" s="3">
-        <v>15400</v>
+        <v>15100</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -739,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>33500</v>
+        <v>32900</v>
       </c>
       <c r="E9" s="3">
-        <v>21200</v>
+        <v>20900</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -766,10 +766,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-12600</v>
+        <v>-12400</v>
       </c>
       <c r="E10" s="3">
-        <v>-5800</v>
+        <v>-5700</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>51200</v>
+        <v>50300</v>
       </c>
       <c r="E12" s="3">
-        <v>48500</v>
+        <v>47700</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -887,7 +887,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="E15" s="3">
         <v>3400</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>139900</v>
+        <v>137500</v>
       </c>
       <c r="E17" s="3">
-        <v>102500</v>
+        <v>100800</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-119000</v>
+        <v>-117000</v>
       </c>
       <c r="E18" s="3">
-        <v>-87100</v>
+        <v>-85700</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-110200</v>
+        <v>-108400</v>
       </c>
       <c r="E21" s="3">
-        <v>-80600</v>
+        <v>-79200</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-119800</v>
+        <v>-117800</v>
       </c>
       <c r="E23" s="3">
-        <v>-85100</v>
+        <v>-83700</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-119500</v>
+        <v>-117500</v>
       </c>
       <c r="E26" s="3">
-        <v>-85200</v>
+        <v>-83800</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-119500</v>
+        <v>-117500</v>
       </c>
       <c r="E27" s="3">
-        <v>-85200</v>
+        <v>-83800</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-119500</v>
+        <v>-117500</v>
       </c>
       <c r="E33" s="3">
-        <v>-85200</v>
+        <v>-83800</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-119500</v>
+        <v>-117500</v>
       </c>
       <c r="E35" s="3">
-        <v>-85200</v>
+        <v>-83800</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1481,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>36700</v>
+        <v>36100</v>
       </c>
       <c r="E41" s="3">
-        <v>25600</v>
+        <v>25200</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1511,7 +1511,7 @@
         <v>1700</v>
       </c>
       <c r="E42" s="3">
-        <v>47000</v>
+        <v>46200</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
@@ -1535,10 +1535,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>21200</v>
+        <v>20800</v>
       </c>
       <c r="E43" s="3">
-        <v>10300</v>
+        <v>10100</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1562,7 +1562,7 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="E44" s="3">
         <v>3500</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>68400</v>
+        <v>67300</v>
       </c>
       <c r="E46" s="3">
-        <v>87400</v>
+        <v>86000</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1643,7 +1643,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E47" s="3">
         <v>900</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>73800</v>
+        <v>72600</v>
       </c>
       <c r="E48" s="3">
-        <v>48400</v>
+        <v>47600</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1697,10 +1697,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="E49" s="3">
-        <v>7400</v>
+        <v>7300</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1778,10 +1778,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E52" s="3">
         <v>6100</v>
-      </c>
-      <c r="E52" s="3">
-        <v>6200</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1832,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>156200</v>
+        <v>153700</v>
       </c>
       <c r="E54" s="3">
-        <v>150300</v>
+        <v>147800</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6400</v>
+        <v>6300</v>
       </c>
       <c r="E57" s="3">
-        <v>10800</v>
+        <v>10600</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1939,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24800</v>
+        <v>24400</v>
       </c>
       <c r="E59" s="3">
-        <v>22800</v>
+        <v>22400</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1966,10 +1966,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>33600</v>
+        <v>33000</v>
       </c>
       <c r="E60" s="3">
-        <v>33600</v>
+        <v>33100</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -1993,7 +1993,7 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>92300</v>
+        <v>90800</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>81600</v>
+        <v>80200</v>
       </c>
       <c r="E62" s="3">
-        <v>78300</v>
+        <v>77000</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2128,10 +2128,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>207400</v>
+        <v>204000</v>
       </c>
       <c r="E66" s="3">
-        <v>111900</v>
+        <v>110100</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-52100</v>
+        <v>-51200</v>
       </c>
       <c r="E72" s="3">
-        <v>37500</v>
+        <v>36900</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-51200</v>
+        <v>-50400</v>
       </c>
       <c r="E76" s="3">
-        <v>38400</v>
+        <v>37700</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-119500</v>
+        <v>-117500</v>
       </c>
       <c r="E81" s="3">
-        <v>-85200</v>
+        <v>-83800</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2510,10 +2510,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="E83" s="3">
-        <v>4500</v>
+        <v>4400</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-104000</v>
+        <v>-102300</v>
       </c>
       <c r="E89" s="3">
-        <v>-88700</v>
+        <v>-87200</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2712,10 +2712,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13400</v>
+        <v>-13100</v>
       </c>
       <c r="E91" s="3">
-        <v>-11300</v>
+        <v>-11100</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -2793,10 +2793,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>33700</v>
+        <v>33200</v>
       </c>
       <c r="E94" s="3">
-        <v>-5100</v>
+        <v>-5000</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2941,7 +2941,7 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>81300</v>
+        <v>80000</v>
       </c>
       <c r="E100" s="3">
         <v>-100</v>
@@ -2995,10 +2995,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>11100</v>
+        <v>10900</v>
       </c>
       <c r="E102" s="3">
-        <v>-93600</v>
+        <v>-92100</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CVAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVAC_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,34 +665,34 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,20 +705,23 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>20500</v>
+        <v>59900</v>
       </c>
       <c r="E8" s="3">
-        <v>15100</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+        <v>21300</v>
+      </c>
+      <c r="F8" s="3">
+        <v>15800</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -732,20 +735,23 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>32900</v>
+        <v>17400</v>
       </c>
       <c r="E9" s="3">
-        <v>20900</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+        <v>34300</v>
+      </c>
+      <c r="F9" s="3">
+        <v>21700</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -759,20 +765,23 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-12400</v>
+        <v>42500</v>
       </c>
       <c r="E10" s="3">
-        <v>-5700</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+        <v>-12900</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-6000</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -786,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,19 +812,20 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>50300</v>
+        <v>136300</v>
       </c>
       <c r="E12" s="3">
-        <v>47700</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
+        <v>52400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>49700</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -826,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,9 +869,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -880,20 +899,23 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>3300</v>
+        <v>10700</v>
       </c>
       <c r="E15" s="3">
-        <v>3400</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
+        <v>3500</v>
+      </c>
+      <c r="F15" s="3">
+        <v>3500</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -907,9 +929,12 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,19 +943,20 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>137500</v>
+        <v>194400</v>
       </c>
       <c r="E17" s="3">
-        <v>100800</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>143200</v>
+      </c>
+      <c r="F17" s="3">
+        <v>105000</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -944,20 +970,23 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-117000</v>
+        <v>-134500</v>
       </c>
       <c r="E18" s="3">
-        <v>-85700</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>-121900</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-89200</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,19 +1017,20 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-22500</v>
+      </c>
+      <c r="E20" s="3">
         <v>200</v>
       </c>
-      <c r="E20" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+      <c r="F20" s="3">
+        <v>2100</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1011,20 +1044,23 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-108400</v>
+        <v>-144000</v>
       </c>
       <c r="E21" s="3">
-        <v>-79200</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+        <v>-112900</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-82500</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1038,18 +1074,21 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E22" s="3">
         <v>1000</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1065,20 +1104,23 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-117800</v>
+        <v>-159100</v>
       </c>
       <c r="E23" s="3">
-        <v>-83700</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+        <v>-122700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-87100</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1092,21 +1134,24 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E24" s="3">
         <v>-300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1119,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,20 +1194,23 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-117500</v>
+        <v>-158200</v>
       </c>
       <c r="E26" s="3">
-        <v>-83800</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+        <v>-122300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-87300</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1173,20 +1224,23 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-117500</v>
+        <v>-158200</v>
       </c>
       <c r="E27" s="3">
-        <v>-83800</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+        <v>-122300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-87300</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,20 +1374,23 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>22500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+      <c r="F32" s="3">
+        <v>-2100</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1335,20 +1404,23 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-117500</v>
+        <v>-158200</v>
       </c>
       <c r="E33" s="3">
-        <v>-83800</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>-122300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-87300</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,20 +1464,23 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-117500</v>
+        <v>-158200</v>
       </c>
       <c r="E35" s="3">
-        <v>-83800</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>-122300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-87300</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1416,26 +1494,29 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,19 +1560,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>36100</v>
+        <v>1620200</v>
       </c>
       <c r="E41" s="3">
-        <v>25200</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>37600</v>
+      </c>
+      <c r="F41" s="3">
+        <v>26200</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1501,20 +1587,23 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>1700</v>
+        <v>3200</v>
       </c>
       <c r="E42" s="3">
-        <v>46200</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
+        <v>1800</v>
+      </c>
+      <c r="F42" s="3">
+        <v>48100</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1528,20 +1617,23 @@
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>20800</v>
+        <v>2200</v>
       </c>
       <c r="E43" s="3">
-        <v>10100</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
+        <v>21700</v>
+      </c>
+      <c r="F43" s="3">
+        <v>10600</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1555,20 +1647,23 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>7300</v>
+        <v>17800</v>
       </c>
       <c r="E44" s="3">
-        <v>3500</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
+        <v>7600</v>
+      </c>
+      <c r="F44" s="3">
+        <v>3600</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1582,20 +1677,23 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>59200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1400</v>
       </c>
-      <c r="E45" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
+      <c r="F45" s="3">
+        <v>1100</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1609,20 +1707,23 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>67300</v>
+        <v>1702600</v>
       </c>
       <c r="E46" s="3">
-        <v>86000</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>70000</v>
+      </c>
+      <c r="F46" s="3">
+        <v>89500</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1636,21 +1737,24 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1100</v>
+        <v>1300</v>
       </c>
       <c r="E47" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F47" s="3">
         <v>900</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1663,20 +1767,23 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>72600</v>
+        <v>123200</v>
       </c>
       <c r="E48" s="3">
-        <v>47600</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
+        <v>75600</v>
+      </c>
+      <c r="F48" s="3">
+        <v>49600</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1690,20 +1797,23 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>6700</v>
+        <v>17300</v>
       </c>
       <c r="E49" s="3">
-        <v>7300</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
+        <v>7000</v>
+      </c>
+      <c r="F49" s="3">
+        <v>7600</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,20 +1887,23 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6000</v>
+        <v>7000</v>
       </c>
       <c r="E52" s="3">
-        <v>6100</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+        <v>6200</v>
+      </c>
+      <c r="F52" s="3">
+        <v>6300</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,20 +1947,23 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>153700</v>
+        <v>1851400</v>
       </c>
       <c r="E54" s="3">
-        <v>147800</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>160000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>153900</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,19 +2008,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>6300</v>
+        <v>26600</v>
       </c>
       <c r="E57" s="3">
-        <v>10600</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+        <v>6500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>11100</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1905,21 +2035,24 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2400</v>
+        <v>4000</v>
       </c>
       <c r="E58" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -1932,20 +2065,23 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>24400</v>
+        <v>272800</v>
       </c>
       <c r="E59" s="3">
-        <v>22400</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>25400</v>
+      </c>
+      <c r="F59" s="3">
+        <v>23300</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -1959,20 +2095,23 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>33000</v>
+        <v>303300</v>
       </c>
       <c r="E60" s="3">
-        <v>33100</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>34400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>34500</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -1986,17 +2125,20 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>90800</v>
+        <v>63800</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>94500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2013,21 +2155,24 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>612900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>83500</v>
+      </c>
+      <c r="F62" s="3">
         <v>80200</v>
       </c>
-      <c r="E62" s="3">
-        <v>77000</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2040,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,20 +2275,23 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>204000</v>
+        <v>980000</v>
       </c>
       <c r="E66" s="3">
-        <v>110100</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>212400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>114600</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,20 +2439,23 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-51200</v>
+        <v>844800</v>
       </c>
       <c r="E72" s="3">
-        <v>36900</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-53300</v>
+      </c>
+      <c r="F72" s="3">
+        <v>38400</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,20 +2559,23 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-50400</v>
+        <v>871400</v>
       </c>
       <c r="E76" s="3">
-        <v>37700</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>-52400</v>
+      </c>
+      <c r="F76" s="3">
+        <v>39300</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,26 +2619,29 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,20 +2654,23 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-117500</v>
+        <v>-158200</v>
       </c>
       <c r="E81" s="3">
-        <v>-83800</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+        <v>-122300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-87300</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,19 +2701,20 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>8400</v>
+        <v>13100</v>
       </c>
       <c r="E83" s="3">
-        <v>4400</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+        <v>8800</v>
+      </c>
+      <c r="F83" s="3">
+        <v>4600</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2530,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,20 +2878,23 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-102300</v>
+        <v>639900</v>
       </c>
       <c r="E89" s="3">
-        <v>-87200</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+        <v>-106500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-90800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,19 +2925,20 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-13100</v>
+        <v>-44500</v>
       </c>
       <c r="E91" s="3">
-        <v>-11100</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+        <v>-13700</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-11500</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,20 +3012,23 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>33200</v>
+        <v>-55500</v>
       </c>
       <c r="E94" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+        <v>34500</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-5200</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3059,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,21 +3176,24 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>80000</v>
+        <v>1004300</v>
       </c>
       <c r="E100" s="3">
+        <v>83300</v>
+      </c>
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -2961,21 +3206,24 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6200</v>
+      </c>
+      <c r="E101" s="3">
         <v>100</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -2988,20 +3236,23 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>10900</v>
+        <v>1582600</v>
       </c>
       <c r="E102" s="3">
-        <v>-92100</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+        <v>11400</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-95900</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CVAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVAC_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>59900</v>
+        <v>57100</v>
       </c>
       <c r="E8" s="3">
-        <v>21300</v>
+        <v>20300</v>
       </c>
       <c r="F8" s="3">
-        <v>15800</v>
+        <v>15000</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -745,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>17400</v>
+        <v>16500</v>
       </c>
       <c r="E9" s="3">
-        <v>34300</v>
+        <v>32700</v>
       </c>
       <c r="F9" s="3">
-        <v>21700</v>
+        <v>20700</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -775,13 +775,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>42500</v>
+        <v>40500</v>
       </c>
       <c r="E10" s="3">
-        <v>-12900</v>
+        <v>-12300</v>
       </c>
       <c r="F10" s="3">
-        <v>-6000</v>
+        <v>-5700</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>136300</v>
+        <v>129900</v>
       </c>
       <c r="E12" s="3">
-        <v>52400</v>
+        <v>49900</v>
       </c>
       <c r="F12" s="3">
-        <v>49700</v>
+        <v>47400</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -909,13 +909,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>10700</v>
+        <v>10200</v>
       </c>
       <c r="E15" s="3">
-        <v>3500</v>
+        <v>3300</v>
       </c>
       <c r="F15" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>194400</v>
+        <v>185300</v>
       </c>
       <c r="E17" s="3">
-        <v>143200</v>
+        <v>136500</v>
       </c>
       <c r="F17" s="3">
-        <v>105000</v>
+        <v>100000</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-134500</v>
+        <v>-128200</v>
       </c>
       <c r="E18" s="3">
-        <v>-121900</v>
+        <v>-116200</v>
       </c>
       <c r="F18" s="3">
-        <v>-89200</v>
+        <v>-85000</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-22500</v>
+        <v>-21400</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-144000</v>
+        <v>-137100</v>
       </c>
       <c r="E21" s="3">
-        <v>-112900</v>
+        <v>-107500</v>
       </c>
       <c r="F21" s="3">
-        <v>-82500</v>
+        <v>-78600</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1084,7 +1084,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="E22" s="3">
         <v>1000</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-159100</v>
+        <v>-151600</v>
       </c>
       <c r="E23" s="3">
-        <v>-122700</v>
+        <v>-116900</v>
       </c>
       <c r="F23" s="3">
-        <v>-87100</v>
+        <v>-83000</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1144,7 +1144,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="E24" s="3">
         <v>-300</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-158200</v>
+        <v>-150700</v>
       </c>
       <c r="E26" s="3">
-        <v>-122300</v>
+        <v>-116600</v>
       </c>
       <c r="F26" s="3">
-        <v>-87300</v>
+        <v>-83200</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-158200</v>
+        <v>-150700</v>
       </c>
       <c r="E27" s="3">
-        <v>-122300</v>
+        <v>-116600</v>
       </c>
       <c r="F27" s="3">
-        <v>-87300</v>
+        <v>-83200</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1384,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>22500</v>
+        <v>21400</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>-2100</v>
+        <v>-2000</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-158200</v>
+        <v>-150700</v>
       </c>
       <c r="E33" s="3">
-        <v>-122300</v>
+        <v>-116600</v>
       </c>
       <c r="F33" s="3">
-        <v>-87300</v>
+        <v>-83200</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-158200</v>
+        <v>-150700</v>
       </c>
       <c r="E35" s="3">
-        <v>-122300</v>
+        <v>-116600</v>
       </c>
       <c r="F35" s="3">
-        <v>-87300</v>
+        <v>-83200</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1620200</v>
+        <v>1544000</v>
       </c>
       <c r="E41" s="3">
-        <v>37600</v>
+        <v>35800</v>
       </c>
       <c r="F41" s="3">
-        <v>26200</v>
+        <v>25000</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E42" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F42" s="3">
-        <v>48100</v>
+        <v>45800</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="E43" s="3">
-        <v>21700</v>
+        <v>20600</v>
       </c>
       <c r="F43" s="3">
-        <v>10600</v>
+        <v>10100</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1657,13 +1657,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>17800</v>
+        <v>17000</v>
       </c>
       <c r="E44" s="3">
-        <v>7600</v>
+        <v>7200</v>
       </c>
       <c r="F44" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>59200</v>
+        <v>56400</v>
       </c>
       <c r="E45" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="F45" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1702600</v>
+        <v>1622500</v>
       </c>
       <c r="E46" s="3">
-        <v>70000</v>
+        <v>66700</v>
       </c>
       <c r="F46" s="3">
-        <v>89500</v>
+        <v>85300</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1747,10 +1747,10 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="E47" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F47" s="3">
         <v>900</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>123200</v>
+        <v>117400</v>
       </c>
       <c r="E48" s="3">
-        <v>75600</v>
+        <v>72000</v>
       </c>
       <c r="F48" s="3">
-        <v>49600</v>
+        <v>47200</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>17300</v>
+        <v>16500</v>
       </c>
       <c r="E49" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="F49" s="3">
-        <v>7600</v>
+        <v>7300</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7000</v>
+        <v>6700</v>
       </c>
       <c r="E52" s="3">
-        <v>6200</v>
+        <v>5900</v>
       </c>
       <c r="F52" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1851400</v>
+        <v>1764400</v>
       </c>
       <c r="E54" s="3">
-        <v>160000</v>
+        <v>152500</v>
       </c>
       <c r="F54" s="3">
-        <v>153900</v>
+        <v>146700</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>26600</v>
+        <v>25300</v>
       </c>
       <c r="E57" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="F57" s="3">
-        <v>11100</v>
+        <v>10500</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,10 +2045,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="E58" s="3">
-        <v>2500</v>
+        <v>2300</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>272800</v>
+        <v>260000</v>
       </c>
       <c r="E59" s="3">
-        <v>25400</v>
+        <v>24200</v>
       </c>
       <c r="F59" s="3">
-        <v>23300</v>
+        <v>22200</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>303300</v>
+        <v>289100</v>
       </c>
       <c r="E60" s="3">
-        <v>34400</v>
+        <v>32800</v>
       </c>
       <c r="F60" s="3">
-        <v>34500</v>
+        <v>32800</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2135,10 +2135,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>63800</v>
+        <v>60800</v>
       </c>
       <c r="E61" s="3">
-        <v>94500</v>
+        <v>90100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>612900</v>
+        <v>584100</v>
       </c>
       <c r="E62" s="3">
-        <v>83500</v>
+        <v>79600</v>
       </c>
       <c r="F62" s="3">
-        <v>80200</v>
+        <v>76400</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>980000</v>
+        <v>933900</v>
       </c>
       <c r="E66" s="3">
-        <v>212400</v>
+        <v>202500</v>
       </c>
       <c r="F66" s="3">
-        <v>114600</v>
+        <v>109200</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>844800</v>
+        <v>805100</v>
       </c>
       <c r="E72" s="3">
-        <v>-53300</v>
+        <v>-50800</v>
       </c>
       <c r="F72" s="3">
-        <v>38400</v>
+        <v>36600</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>871400</v>
+        <v>830400</v>
       </c>
       <c r="E76" s="3">
-        <v>-52400</v>
+        <v>-50000</v>
       </c>
       <c r="F76" s="3">
-        <v>39300</v>
+        <v>37500</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-158200</v>
+        <v>-150700</v>
       </c>
       <c r="E81" s="3">
-        <v>-122300</v>
+        <v>-116600</v>
       </c>
       <c r="F81" s="3">
-        <v>-87300</v>
+        <v>-83200</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>13100</v>
+        <v>12500</v>
       </c>
       <c r="E83" s="3">
-        <v>8800</v>
+        <v>8400</v>
       </c>
       <c r="F83" s="3">
-        <v>4600</v>
+        <v>4400</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>639900</v>
+        <v>609900</v>
       </c>
       <c r="E89" s="3">
-        <v>-106500</v>
+        <v>-101500</v>
       </c>
       <c r="F89" s="3">
-        <v>-90800</v>
+        <v>-86500</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-44500</v>
+        <v>-42400</v>
       </c>
       <c r="E91" s="3">
-        <v>-13700</v>
+        <v>-13000</v>
       </c>
       <c r="F91" s="3">
-        <v>-11500</v>
+        <v>-11000</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-55500</v>
+        <v>-52900</v>
       </c>
       <c r="E94" s="3">
-        <v>34500</v>
+        <v>32900</v>
       </c>
       <c r="F94" s="3">
-        <v>-5200</v>
+        <v>-5000</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,10 +3186,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1004300</v>
+        <v>957100</v>
       </c>
       <c r="E100" s="3">
-        <v>83300</v>
+        <v>79400</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
@@ -3216,13 +3216,13 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-6200</v>
+        <v>-5900</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
       </c>
       <c r="F101" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1582600</v>
+        <v>1508200</v>
       </c>
       <c r="E102" s="3">
-        <v>11400</v>
+        <v>10900</v>
       </c>
       <c r="F102" s="3">
-        <v>-95900</v>
+        <v>-91400</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CVAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVAC_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>57100</v>
+        <v>55200</v>
       </c>
       <c r="E8" s="3">
-        <v>20300</v>
+        <v>19700</v>
       </c>
       <c r="F8" s="3">
-        <v>15000</v>
+        <v>14500</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -745,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="E9" s="3">
-        <v>32700</v>
+        <v>31600</v>
       </c>
       <c r="F9" s="3">
-        <v>20700</v>
+        <v>20000</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -775,13 +775,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>40500</v>
+        <v>39200</v>
       </c>
       <c r="E10" s="3">
-        <v>-12300</v>
+        <v>-11900</v>
       </c>
       <c r="F10" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>129900</v>
+        <v>125600</v>
       </c>
       <c r="E12" s="3">
-        <v>49900</v>
+        <v>48300</v>
       </c>
       <c r="F12" s="3">
-        <v>47400</v>
+        <v>45800</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -909,13 +909,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>10200</v>
+        <v>9800</v>
       </c>
       <c r="E15" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="F15" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>185300</v>
+        <v>179200</v>
       </c>
       <c r="E17" s="3">
-        <v>136500</v>
+        <v>132000</v>
       </c>
       <c r="F17" s="3">
-        <v>100000</v>
+        <v>96800</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-128200</v>
+        <v>-124000</v>
       </c>
       <c r="E18" s="3">
-        <v>-116200</v>
+        <v>-112300</v>
       </c>
       <c r="F18" s="3">
-        <v>-85000</v>
+        <v>-82200</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-21400</v>
+        <v>-20700</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-137100</v>
+        <v>-132700</v>
       </c>
       <c r="E21" s="3">
-        <v>-107500</v>
+        <v>-104000</v>
       </c>
       <c r="F21" s="3">
-        <v>-78600</v>
+        <v>-76000</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1087,7 +1087,7 @@
         <v>1900</v>
       </c>
       <c r="E22" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-151600</v>
+        <v>-146600</v>
       </c>
       <c r="E23" s="3">
-        <v>-116900</v>
+        <v>-113100</v>
       </c>
       <c r="F23" s="3">
-        <v>-83000</v>
+        <v>-80300</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-150700</v>
+        <v>-145800</v>
       </c>
       <c r="E26" s="3">
-        <v>-116600</v>
+        <v>-112800</v>
       </c>
       <c r="F26" s="3">
-        <v>-83200</v>
+        <v>-80400</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-150700</v>
+        <v>-145800</v>
       </c>
       <c r="E27" s="3">
-        <v>-116600</v>
+        <v>-112800</v>
       </c>
       <c r="F27" s="3">
-        <v>-83200</v>
+        <v>-80400</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1384,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>21400</v>
+        <v>20700</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-150700</v>
+        <v>-145800</v>
       </c>
       <c r="E33" s="3">
-        <v>-116600</v>
+        <v>-112800</v>
       </c>
       <c r="F33" s="3">
-        <v>-83200</v>
+        <v>-80400</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-150700</v>
+        <v>-145800</v>
       </c>
       <c r="E35" s="3">
-        <v>-116600</v>
+        <v>-112800</v>
       </c>
       <c r="F35" s="3">
-        <v>-83200</v>
+        <v>-80400</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1544000</v>
+        <v>1493300</v>
       </c>
       <c r="E41" s="3">
-        <v>35800</v>
+        <v>34600</v>
       </c>
       <c r="F41" s="3">
-        <v>25000</v>
+        <v>24100</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="E42" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="F42" s="3">
-        <v>45800</v>
+        <v>44300</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1630,10 +1630,10 @@
         <v>2100</v>
       </c>
       <c r="E43" s="3">
-        <v>20600</v>
+        <v>20000</v>
       </c>
       <c r="F43" s="3">
-        <v>10100</v>
+        <v>9700</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1657,13 +1657,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>17000</v>
+        <v>16400</v>
       </c>
       <c r="E44" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="F44" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1687,7 +1687,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>56400</v>
+        <v>54500</v>
       </c>
       <c r="E45" s="3">
         <v>1300</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1622500</v>
+        <v>1569300</v>
       </c>
       <c r="E46" s="3">
-        <v>66700</v>
+        <v>64600</v>
       </c>
       <c r="F46" s="3">
-        <v>85300</v>
+        <v>82500</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1753,7 +1753,7 @@
         <v>1100</v>
       </c>
       <c r="F47" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>117400</v>
+        <v>113600</v>
       </c>
       <c r="E48" s="3">
-        <v>72000</v>
+        <v>69600</v>
       </c>
       <c r="F48" s="3">
-        <v>47200</v>
+        <v>45700</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16500</v>
+        <v>16000</v>
       </c>
       <c r="E49" s="3">
-        <v>6700</v>
+        <v>6400</v>
       </c>
       <c r="F49" s="3">
-        <v>7300</v>
+        <v>7000</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6700</v>
+        <v>6500</v>
       </c>
       <c r="E52" s="3">
-        <v>5900</v>
+        <v>5800</v>
       </c>
       <c r="F52" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1764400</v>
+        <v>1706500</v>
       </c>
       <c r="E54" s="3">
-        <v>152500</v>
+        <v>147500</v>
       </c>
       <c r="F54" s="3">
-        <v>146700</v>
+        <v>141900</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>25300</v>
+        <v>24500</v>
       </c>
       <c r="E57" s="3">
-        <v>6200</v>
+        <v>6000</v>
       </c>
       <c r="F57" s="3">
-        <v>10500</v>
+        <v>10200</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,7 +2045,7 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="E58" s="3">
         <v>2300</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>260000</v>
+        <v>251500</v>
       </c>
       <c r="E59" s="3">
-        <v>24200</v>
+        <v>23400</v>
       </c>
       <c r="F59" s="3">
-        <v>22200</v>
+        <v>21500</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>289100</v>
+        <v>279600</v>
       </c>
       <c r="E60" s="3">
-        <v>32800</v>
+        <v>31700</v>
       </c>
       <c r="F60" s="3">
-        <v>32800</v>
+        <v>31800</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2135,10 +2135,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>60800</v>
+        <v>58800</v>
       </c>
       <c r="E61" s="3">
-        <v>90100</v>
+        <v>87100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>584100</v>
+        <v>564900</v>
       </c>
       <c r="E62" s="3">
-        <v>79600</v>
+        <v>77000</v>
       </c>
       <c r="F62" s="3">
-        <v>76400</v>
+        <v>73900</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>933900</v>
+        <v>903300</v>
       </c>
       <c r="E66" s="3">
-        <v>202500</v>
+        <v>195800</v>
       </c>
       <c r="F66" s="3">
-        <v>109200</v>
+        <v>105700</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>805100</v>
+        <v>778700</v>
       </c>
       <c r="E72" s="3">
-        <v>-50800</v>
+        <v>-49200</v>
       </c>
       <c r="F72" s="3">
-        <v>36600</v>
+        <v>35400</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>830400</v>
+        <v>803200</v>
       </c>
       <c r="E76" s="3">
-        <v>-50000</v>
+        <v>-48300</v>
       </c>
       <c r="F76" s="3">
-        <v>37500</v>
+        <v>36200</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-150700</v>
+        <v>-145800</v>
       </c>
       <c r="E81" s="3">
-        <v>-116600</v>
+        <v>-112800</v>
       </c>
       <c r="F81" s="3">
-        <v>-83200</v>
+        <v>-80400</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12500</v>
+        <v>12000</v>
       </c>
       <c r="E83" s="3">
-        <v>8400</v>
+        <v>8100</v>
       </c>
       <c r="F83" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>609900</v>
+        <v>589800</v>
       </c>
       <c r="E89" s="3">
-        <v>-101500</v>
+        <v>-98200</v>
       </c>
       <c r="F89" s="3">
-        <v>-86500</v>
+        <v>-83700</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-42400</v>
+        <v>-41000</v>
       </c>
       <c r="E91" s="3">
-        <v>-13000</v>
+        <v>-12600</v>
       </c>
       <c r="F91" s="3">
-        <v>-11000</v>
+        <v>-10600</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-52900</v>
+        <v>-51100</v>
       </c>
       <c r="E94" s="3">
-        <v>32900</v>
+        <v>31800</v>
       </c>
       <c r="F94" s="3">
-        <v>-5000</v>
+        <v>-4800</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,10 +3186,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>957100</v>
+        <v>925700</v>
       </c>
       <c r="E100" s="3">
-        <v>79400</v>
+        <v>76800</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
@@ -3216,7 +3216,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5900</v>
+        <v>-5700</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1508200</v>
+        <v>1458700</v>
       </c>
       <c r="E102" s="3">
-        <v>10900</v>
+        <v>10500</v>
       </c>
       <c r="F102" s="3">
-        <v>-91400</v>
+        <v>-88400</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CVAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVAC_YR_FIN.xlsx
@@ -715,13 +715,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>55200</v>
+        <v>53300</v>
       </c>
       <c r="E8" s="3">
-        <v>19700</v>
+        <v>19000</v>
       </c>
       <c r="F8" s="3">
-        <v>14500</v>
+        <v>14000</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -745,13 +745,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>16000</v>
+        <v>15500</v>
       </c>
       <c r="E9" s="3">
-        <v>31600</v>
+        <v>30500</v>
       </c>
       <c r="F9" s="3">
-        <v>20000</v>
+        <v>19400</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -775,13 +775,13 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>39200</v>
+        <v>37900</v>
       </c>
       <c r="E10" s="3">
-        <v>-11900</v>
+        <v>-11500</v>
       </c>
       <c r="F10" s="3">
-        <v>-5500</v>
+        <v>-5300</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -819,13 +819,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>125600</v>
+        <v>121300</v>
       </c>
       <c r="E12" s="3">
-        <v>48300</v>
+        <v>46700</v>
       </c>
       <c r="F12" s="3">
-        <v>45800</v>
+        <v>44300</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -909,13 +909,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9800</v>
+        <v>9500</v>
       </c>
       <c r="E15" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="F15" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -950,13 +950,13 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>179200</v>
+        <v>173100</v>
       </c>
       <c r="E17" s="3">
-        <v>132000</v>
+        <v>127500</v>
       </c>
       <c r="F17" s="3">
-        <v>96800</v>
+        <v>93500</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -980,13 +980,13 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-124000</v>
+        <v>-119800</v>
       </c>
       <c r="E18" s="3">
-        <v>-112300</v>
+        <v>-108500</v>
       </c>
       <c r="F18" s="3">
-        <v>-82200</v>
+        <v>-79400</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -1024,13 +1024,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-20700</v>
+        <v>-20000</v>
       </c>
       <c r="E20" s="3">
         <v>200</v>
       </c>
       <c r="F20" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1054,13 +1054,13 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-132700</v>
+        <v>-128000</v>
       </c>
       <c r="E21" s="3">
-        <v>-104000</v>
+        <v>-100400</v>
       </c>
       <c r="F21" s="3">
-        <v>-76000</v>
+        <v>-73400</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1084,7 +1084,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E22" s="3">
         <v>900</v>
@@ -1114,13 +1114,13 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-146600</v>
+        <v>-141700</v>
       </c>
       <c r="E23" s="3">
-        <v>-113100</v>
+        <v>-109200</v>
       </c>
       <c r="F23" s="3">
-        <v>-80300</v>
+        <v>-77600</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1204,13 +1204,13 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-145800</v>
+        <v>-140900</v>
       </c>
       <c r="E26" s="3">
-        <v>-112800</v>
+        <v>-109000</v>
       </c>
       <c r="F26" s="3">
-        <v>-80400</v>
+        <v>-77700</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1234,13 +1234,13 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-145800</v>
+        <v>-140900</v>
       </c>
       <c r="E27" s="3">
-        <v>-112800</v>
+        <v>-109000</v>
       </c>
       <c r="F27" s="3">
-        <v>-80400</v>
+        <v>-77700</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1384,13 +1384,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>20700</v>
+        <v>20000</v>
       </c>
       <c r="E32" s="3">
         <v>-200</v>
       </c>
       <c r="F32" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1414,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-145800</v>
+        <v>-140900</v>
       </c>
       <c r="E33" s="3">
-        <v>-112800</v>
+        <v>-109000</v>
       </c>
       <c r="F33" s="3">
-        <v>-80400</v>
+        <v>-77700</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1474,13 +1474,13 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-145800</v>
+        <v>-140900</v>
       </c>
       <c r="E35" s="3">
-        <v>-112800</v>
+        <v>-109000</v>
       </c>
       <c r="F35" s="3">
-        <v>-80400</v>
+        <v>-77700</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1567,13 +1567,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1493300</v>
+        <v>1442800</v>
       </c>
       <c r="E41" s="3">
-        <v>34600</v>
+        <v>33500</v>
       </c>
       <c r="F41" s="3">
-        <v>24100</v>
+        <v>23300</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1597,13 +1597,13 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="E42" s="3">
         <v>1600</v>
       </c>
       <c r="F42" s="3">
-        <v>44300</v>
+        <v>42800</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
@@ -1627,13 +1627,13 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E43" s="3">
-        <v>20000</v>
+        <v>19300</v>
       </c>
       <c r="F43" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
@@ -1657,13 +1657,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>16400</v>
+        <v>15900</v>
       </c>
       <c r="E44" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="F44" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
@@ -1687,13 +1687,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>54500</v>
+        <v>52700</v>
       </c>
       <c r="E45" s="3">
         <v>1300</v>
       </c>
       <c r="F45" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
@@ -1717,13 +1717,13 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1569300</v>
+        <v>1516200</v>
       </c>
       <c r="E46" s="3">
-        <v>64600</v>
+        <v>62400</v>
       </c>
       <c r="F46" s="3">
-        <v>82500</v>
+        <v>79700</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1747,7 +1747,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E47" s="3">
         <v>1100</v>
@@ -1777,13 +1777,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>113600</v>
+        <v>109700</v>
       </c>
       <c r="E48" s="3">
-        <v>69600</v>
+        <v>67300</v>
       </c>
       <c r="F48" s="3">
-        <v>45700</v>
+        <v>44200</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
@@ -1807,13 +1807,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>16000</v>
+        <v>15400</v>
       </c>
       <c r="E49" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="F49" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
@@ -1897,13 +1897,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6500</v>
+        <v>6300</v>
       </c>
       <c r="E52" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="F52" s="3">
-        <v>5800</v>
+        <v>5600</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1957,13 +1957,13 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1706500</v>
+        <v>1648800</v>
       </c>
       <c r="E54" s="3">
-        <v>147500</v>
+        <v>142500</v>
       </c>
       <c r="F54" s="3">
-        <v>141900</v>
+        <v>137100</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -2015,13 +2015,13 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>24500</v>
+        <v>23700</v>
       </c>
       <c r="E57" s="3">
-        <v>6000</v>
+        <v>5800</v>
       </c>
       <c r="F57" s="3">
-        <v>10200</v>
+        <v>9800</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -2045,10 +2045,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3700</v>
+        <v>3500</v>
       </c>
       <c r="E58" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="F58" s="3">
         <v>100</v>
@@ -2075,13 +2075,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>251500</v>
+        <v>242900</v>
       </c>
       <c r="E59" s="3">
-        <v>23400</v>
+        <v>22600</v>
       </c>
       <c r="F59" s="3">
-        <v>21500</v>
+        <v>20800</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2105,13 +2105,13 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>279600</v>
+        <v>270100</v>
       </c>
       <c r="E60" s="3">
-        <v>31700</v>
+        <v>30600</v>
       </c>
       <c r="F60" s="3">
-        <v>31800</v>
+        <v>30700</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2135,10 +2135,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>58800</v>
+        <v>56800</v>
       </c>
       <c r="E61" s="3">
-        <v>87100</v>
+        <v>84200</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2165,13 +2165,13 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>564900</v>
+        <v>545800</v>
       </c>
       <c r="E62" s="3">
-        <v>77000</v>
+        <v>74400</v>
       </c>
       <c r="F62" s="3">
-        <v>73900</v>
+        <v>71400</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2285,13 +2285,13 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>903300</v>
+        <v>872700</v>
       </c>
       <c r="E66" s="3">
-        <v>195800</v>
+        <v>189200</v>
       </c>
       <c r="F66" s="3">
-        <v>105700</v>
+        <v>102100</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2449,13 +2449,13 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>778700</v>
+        <v>752300</v>
       </c>
       <c r="E72" s="3">
-        <v>-49200</v>
+        <v>-47500</v>
       </c>
       <c r="F72" s="3">
-        <v>35400</v>
+        <v>34200</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2569,13 +2569,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>803200</v>
+        <v>776000</v>
       </c>
       <c r="E76" s="3">
-        <v>-48300</v>
+        <v>-46700</v>
       </c>
       <c r="F76" s="3">
-        <v>36200</v>
+        <v>35000</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2664,13 +2664,13 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-145800</v>
+        <v>-140900</v>
       </c>
       <c r="E81" s="3">
-        <v>-112800</v>
+        <v>-109000</v>
       </c>
       <c r="F81" s="3">
-        <v>-80400</v>
+        <v>-77700</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2708,13 +2708,13 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12000</v>
+        <v>11600</v>
       </c>
       <c r="E83" s="3">
-        <v>8100</v>
+        <v>7800</v>
       </c>
       <c r="F83" s="3">
-        <v>4300</v>
+        <v>4100</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -2888,13 +2888,13 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>589800</v>
+        <v>569900</v>
       </c>
       <c r="E89" s="3">
-        <v>-98200</v>
+        <v>-94900</v>
       </c>
       <c r="F89" s="3">
-        <v>-83700</v>
+        <v>-80800</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2932,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-41000</v>
+        <v>-39600</v>
       </c>
       <c r="E91" s="3">
-        <v>-12600</v>
+        <v>-12200</v>
       </c>
       <c r="F91" s="3">
-        <v>-10600</v>
+        <v>-10300</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -3022,13 +3022,13 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-51100</v>
+        <v>-49400</v>
       </c>
       <c r="E94" s="3">
-        <v>31800</v>
+        <v>30700</v>
       </c>
       <c r="F94" s="3">
-        <v>-4800</v>
+        <v>-4700</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -3186,10 +3186,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>925700</v>
+        <v>894400</v>
       </c>
       <c r="E100" s="3">
-        <v>76800</v>
+        <v>74200</v>
       </c>
       <c r="F100" s="3">
         <v>-100</v>
@@ -3216,7 +3216,7 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5700</v>
+        <v>-5500</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
@@ -3246,13 +3246,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1458700</v>
+        <v>1409400</v>
       </c>
       <c r="E102" s="3">
-        <v>10500</v>
+        <v>10100</v>
       </c>
       <c r="F102" s="3">
-        <v>-88400</v>
+        <v>-85400</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CVAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVAC_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="92">
   <si>
     <t>CVAC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -708,23 +708,26 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>53300</v>
+        <v>106900</v>
       </c>
       <c r="E8" s="3">
-        <v>19000</v>
+        <v>50700</v>
       </c>
       <c r="F8" s="3">
-        <v>14000</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>18100</v>
+      </c>
+      <c r="G8" s="3">
+        <v>13400</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -738,23 +741,26 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>15500</v>
+        <v>247200</v>
       </c>
       <c r="E9" s="3">
-        <v>30500</v>
+        <v>14700</v>
       </c>
       <c r="F9" s="3">
-        <v>19400</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>29000</v>
+      </c>
+      <c r="G9" s="3">
+        <v>18400</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -768,23 +774,26 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>37900</v>
+        <v>-140300</v>
       </c>
       <c r="E10" s="3">
-        <v>-11500</v>
+        <v>36000</v>
       </c>
       <c r="F10" s="3">
-        <v>-5300</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
+        <v>-11000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-5100</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -798,9 +807,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -813,22 +825,23 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>121300</v>
+        <v>842400</v>
       </c>
       <c r="E12" s="3">
-        <v>46700</v>
+        <v>115400</v>
       </c>
       <c r="F12" s="3">
-        <v>44300</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+        <v>44400</v>
+      </c>
+      <c r="G12" s="3">
+        <v>42100</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -842,9 +855,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -872,53 +888,59 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-68900</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>9500</v>
+        <v>13700</v>
       </c>
       <c r="E15" s="3">
-        <v>3100</v>
+        <v>9000</v>
       </c>
       <c r="F15" s="3">
-        <v>3100</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+        <v>2900</v>
+      </c>
+      <c r="G15" s="3">
+        <v>3000</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -932,9 +954,12 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -944,22 +969,23 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>173100</v>
+        <v>534800</v>
       </c>
       <c r="E17" s="3">
-        <v>127500</v>
+        <v>164700</v>
       </c>
       <c r="F17" s="3">
-        <v>93500</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>121300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>88900</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -973,23 +999,26 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-119800</v>
+        <v>-427900</v>
       </c>
       <c r="E18" s="3">
-        <v>-108500</v>
+        <v>-114000</v>
       </c>
       <c r="F18" s="3">
-        <v>-79400</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-103300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-75600</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1003,9 +1032,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1018,23 +1050,24 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-20000</v>
+        <v>1600</v>
       </c>
       <c r="E20" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="F20" s="3">
         <v>200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1047,23 +1080,26 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-128000</v>
+        <v>-409900</v>
       </c>
       <c r="E21" s="3">
-        <v>-100400</v>
+        <v>-121800</v>
       </c>
       <c r="F21" s="3">
-        <v>-73400</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>-95500</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-69900</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1077,9 +1113,12 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1087,11 +1126,11 @@
         <v>1800</v>
       </c>
       <c r="E22" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F22" s="3">
         <v>900</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1107,23 +1146,26 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-141700</v>
+        <v>-428100</v>
       </c>
       <c r="E23" s="3">
-        <v>-109200</v>
+        <v>-134800</v>
       </c>
       <c r="F23" s="3">
-        <v>-77600</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-103900</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-73800</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1137,9 +1179,12 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1147,14 +1192,14 @@
         <v>-800</v>
       </c>
       <c r="E24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F24" s="3">
         <v>-300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1167,9 +1212,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1197,23 +1245,26 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-140900</v>
+        <v>-427300</v>
       </c>
       <c r="E26" s="3">
-        <v>-109000</v>
+        <v>-134000</v>
       </c>
       <c r="F26" s="3">
-        <v>-77700</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-103700</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-73900</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1227,23 +1278,26 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-140900</v>
+        <v>-427300</v>
       </c>
       <c r="E27" s="3">
-        <v>-109000</v>
+        <v>-134000</v>
       </c>
       <c r="F27" s="3">
-        <v>-77700</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-103700</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-73900</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1257,9 +1311,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1287,9 +1344,12 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1317,9 +1377,12 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1347,9 +1410,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1377,24 +1443,27 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>20000</v>
+        <v>-1600</v>
       </c>
       <c r="E32" s="3">
+        <v>19100</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1407,23 +1476,26 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-140900</v>
+        <v>-427300</v>
       </c>
       <c r="E33" s="3">
-        <v>-109000</v>
+        <v>-134000</v>
       </c>
       <c r="F33" s="3">
-        <v>-77700</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-103700</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-73900</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1437,9 +1509,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1467,23 +1542,26 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-140900</v>
+        <v>-427300</v>
       </c>
       <c r="E35" s="3">
-        <v>-109000</v>
+        <v>-134000</v>
       </c>
       <c r="F35" s="3">
-        <v>-77700</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-103700</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-73900</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1497,29 +1575,32 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1532,9 +1613,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1547,8 +1631,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1561,22 +1646,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1442800</v>
+        <v>842200</v>
       </c>
       <c r="E41" s="3">
-        <v>33500</v>
+        <v>1372700</v>
       </c>
       <c r="F41" s="3">
-        <v>23300</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>31800</v>
+      </c>
+      <c r="G41" s="3">
+        <v>22200</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1590,23 +1676,26 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>2900</v>
+        <v>4800</v>
       </c>
       <c r="E42" s="3">
-        <v>1600</v>
+        <v>2700</v>
       </c>
       <c r="F42" s="3">
-        <v>42800</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+        <v>1500</v>
+      </c>
+      <c r="G42" s="3">
+        <v>40700</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1620,23 +1709,26 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2000</v>
+        <v>19200</v>
       </c>
       <c r="E43" s="3">
-        <v>19300</v>
+        <v>1900</v>
       </c>
       <c r="F43" s="3">
-        <v>9400</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>18400</v>
+      </c>
+      <c r="G43" s="3">
+        <v>8900</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1650,23 +1742,26 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>15900</v>
+        <v>58300</v>
       </c>
       <c r="E44" s="3">
-        <v>6800</v>
+        <v>15100</v>
       </c>
       <c r="F44" s="3">
-        <v>3200</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
+        <v>6400</v>
+      </c>
+      <c r="G44" s="3">
+        <v>3100</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1680,24 +1775,27 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>52700</v>
+        <v>51100</v>
       </c>
       <c r="E45" s="3">
-        <v>1300</v>
+        <v>50100</v>
       </c>
       <c r="F45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1710,23 +1808,26 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1516200</v>
+        <v>975600</v>
       </c>
       <c r="E46" s="3">
-        <v>62400</v>
+        <v>1442500</v>
       </c>
       <c r="F46" s="3">
-        <v>79700</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>59300</v>
+      </c>
+      <c r="G46" s="3">
+        <v>75800</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1740,9 +1841,12 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1753,11 +1857,11 @@
         <v>1100</v>
       </c>
       <c r="F47" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G47" s="3">
         <v>800</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1770,23 +1874,26 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>109700</v>
+        <v>208000</v>
       </c>
       <c r="E48" s="3">
-        <v>67300</v>
+        <v>104400</v>
       </c>
       <c r="F48" s="3">
-        <v>44200</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>64000</v>
+      </c>
+      <c r="G48" s="3">
+        <v>42000</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1800,23 +1907,26 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>15400</v>
+        <v>13700</v>
       </c>
       <c r="E49" s="3">
-        <v>6200</v>
+        <v>14700</v>
       </c>
       <c r="F49" s="3">
-        <v>6800</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
+        <v>5900</v>
+      </c>
+      <c r="G49" s="3">
+        <v>6400</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -1830,9 +1940,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1860,9 +1973,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1890,23 +2006,26 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>6300</v>
+        <v>3600</v>
       </c>
       <c r="E52" s="3">
-        <v>5600</v>
+        <v>6000</v>
       </c>
       <c r="F52" s="3">
-        <v>5600</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>5300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>5400</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1920,9 +2039,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1950,23 +2072,26 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1648800</v>
+        <v>1202100</v>
       </c>
       <c r="E54" s="3">
-        <v>142500</v>
+        <v>1568600</v>
       </c>
       <c r="F54" s="3">
-        <v>137100</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>135600</v>
+      </c>
+      <c r="G54" s="3">
+        <v>130400</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1980,9 +2105,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1995,8 +2123,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2009,22 +2138,23 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>23700</v>
+        <v>132500</v>
       </c>
       <c r="E57" s="3">
-        <v>5800</v>
+        <v>22500</v>
       </c>
       <c r="F57" s="3">
-        <v>9800</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>5500</v>
+      </c>
+      <c r="G57" s="3">
+        <v>9400</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2038,24 +2168,27 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E58" s="3">
-        <v>2200</v>
+        <v>3400</v>
       </c>
       <c r="F58" s="3">
+        <v>2100</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2068,23 +2201,26 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>242900</v>
+        <v>235100</v>
       </c>
       <c r="E59" s="3">
-        <v>22600</v>
+        <v>231100</v>
       </c>
       <c r="F59" s="3">
-        <v>20800</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>21500</v>
+      </c>
+      <c r="G59" s="3">
+        <v>19700</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2098,23 +2234,26 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>270100</v>
+        <v>371300</v>
       </c>
       <c r="E60" s="3">
-        <v>30600</v>
+        <v>257000</v>
       </c>
       <c r="F60" s="3">
-        <v>30700</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>29200</v>
+      </c>
+      <c r="G60" s="3">
+        <v>29200</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2128,20 +2267,23 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>56800</v>
+        <v>26400</v>
       </c>
       <c r="E61" s="3">
-        <v>84200</v>
+        <v>54000</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>80100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2158,23 +2300,26 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>545800</v>
+        <v>89900</v>
       </c>
       <c r="E62" s="3">
-        <v>74400</v>
+        <v>519300</v>
       </c>
       <c r="F62" s="3">
-        <v>71400</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>70800</v>
+      </c>
+      <c r="G62" s="3">
+        <v>67900</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2188,9 +2333,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2218,9 +2366,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2248,9 +2399,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2278,23 +2432,26 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>872700</v>
+        <v>487600</v>
       </c>
       <c r="E66" s="3">
-        <v>189200</v>
+        <v>830300</v>
       </c>
       <c r="F66" s="3">
-        <v>102100</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>180000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>97100</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2308,9 +2465,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2323,8 +2483,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2352,9 +2513,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2382,9 +2546,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2412,9 +2579,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2442,23 +2612,26 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>752300</v>
+        <v>697300</v>
       </c>
       <c r="E72" s="3">
-        <v>-47500</v>
+        <v>715800</v>
       </c>
       <c r="F72" s="3">
-        <v>34200</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-45200</v>
+      </c>
+      <c r="G72" s="3">
+        <v>32600</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2472,9 +2645,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2502,9 +2678,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2532,9 +2711,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2562,23 +2744,26 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>776000</v>
+        <v>714600</v>
       </c>
       <c r="E76" s="3">
-        <v>-46700</v>
+        <v>738300</v>
       </c>
       <c r="F76" s="3">
-        <v>35000</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>-44400</v>
+      </c>
+      <c r="G76" s="3">
+        <v>33300</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2592,9 +2777,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2622,29 +2810,32 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2657,23 +2848,26 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-140900</v>
+        <v>-427300</v>
       </c>
       <c r="E81" s="3">
-        <v>-109000</v>
+        <v>-134000</v>
       </c>
       <c r="F81" s="3">
-        <v>-77700</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-103700</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-73900</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2687,9 +2881,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2702,22 +2899,23 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11600</v>
+        <v>16300</v>
       </c>
       <c r="E83" s="3">
-        <v>7800</v>
+        <v>11100</v>
       </c>
       <c r="F83" s="3">
-        <v>4100</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>7400</v>
+      </c>
+      <c r="G83" s="3">
+        <v>3900</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2731,9 +2929,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2761,9 +2962,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2791,9 +2995,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2821,9 +3028,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2851,9 +3061,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2881,23 +3094,26 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>569900</v>
+        <v>-760900</v>
       </c>
       <c r="E89" s="3">
-        <v>-94900</v>
+        <v>542200</v>
       </c>
       <c r="F89" s="3">
-        <v>-80800</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>-90300</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-76900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2911,9 +3127,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2926,22 +3145,23 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-39600</v>
+        <v>-128900</v>
       </c>
       <c r="E91" s="3">
-        <v>-12200</v>
+        <v>-37700</v>
       </c>
       <c r="F91" s="3">
-        <v>-10300</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-11600</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-9800</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2955,9 +3175,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2985,9 +3208,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3015,23 +3241,26 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-49400</v>
+        <v>-132700</v>
       </c>
       <c r="E94" s="3">
-        <v>30700</v>
+        <v>-47000</v>
       </c>
       <c r="F94" s="3">
-        <v>-4700</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>29200</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-4400</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3045,9 +3274,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3060,8 +3292,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3089,9 +3322,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3119,9 +3355,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3149,9 +3388,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3179,24 +3421,27 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>894400</v>
+        <v>358000</v>
       </c>
       <c r="E100" s="3">
-        <v>74200</v>
+        <v>850900</v>
       </c>
       <c r="F100" s="3">
+        <v>70600</v>
+      </c>
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3209,24 +3454,27 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-5500</v>
+        <v>5100</v>
       </c>
       <c r="E101" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="F101" s="3">
         <v>100</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3239,23 +3487,26 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>1409400</v>
+        <v>-530500</v>
       </c>
       <c r="E102" s="3">
-        <v>10100</v>
+        <v>1340900</v>
       </c>
       <c r="F102" s="3">
-        <v>-85400</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>9700</v>
+      </c>
+      <c r="G102" s="3">
+        <v>-81200</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3269,7 +3520,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CVAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVAC_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>106900</v>
+        <v>102700</v>
       </c>
       <c r="E8" s="3">
-        <v>50700</v>
+        <v>48700</v>
       </c>
       <c r="F8" s="3">
-        <v>18100</v>
+        <v>17400</v>
       </c>
       <c r="G8" s="3">
-        <v>13400</v>
+        <v>12800</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>247200</v>
+        <v>237600</v>
       </c>
       <c r="E9" s="3">
-        <v>14700</v>
+        <v>14100</v>
       </c>
       <c r="F9" s="3">
-        <v>29000</v>
+        <v>27900</v>
       </c>
       <c r="G9" s="3">
-        <v>18400</v>
+        <v>17700</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-140300</v>
+        <v>-134900</v>
       </c>
       <c r="E10" s="3">
-        <v>36000</v>
+        <v>34600</v>
       </c>
       <c r="F10" s="3">
-        <v>-11000</v>
+        <v>-10500</v>
       </c>
       <c r="G10" s="3">
-        <v>-5100</v>
+        <v>-4900</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>842400</v>
+        <v>809500</v>
       </c>
       <c r="E12" s="3">
-        <v>115400</v>
+        <v>110900</v>
       </c>
       <c r="F12" s="3">
-        <v>44400</v>
+        <v>42700</v>
       </c>
       <c r="G12" s="3">
-        <v>42100</v>
+        <v>40500</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -898,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-68900</v>
+        <v>-66200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -931,16 +931,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>13700</v>
+        <v>13200</v>
       </c>
       <c r="E15" s="3">
-        <v>9000</v>
+        <v>8700</v>
       </c>
       <c r="F15" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G15" s="3">
         <v>2900</v>
-      </c>
-      <c r="G15" s="3">
-        <v>3000</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>534800</v>
+        <v>513900</v>
       </c>
       <c r="E17" s="3">
-        <v>164700</v>
+        <v>158300</v>
       </c>
       <c r="F17" s="3">
-        <v>121300</v>
+        <v>116600</v>
       </c>
       <c r="G17" s="3">
-        <v>88900</v>
+        <v>85500</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-427900</v>
+        <v>-411200</v>
       </c>
       <c r="E18" s="3">
-        <v>-114000</v>
+        <v>-109500</v>
       </c>
       <c r="F18" s="3">
-        <v>-103300</v>
+        <v>-99200</v>
       </c>
       <c r="G18" s="3">
-        <v>-75600</v>
+        <v>-72600</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="E20" s="3">
-        <v>-19100</v>
+        <v>-18300</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
       </c>
       <c r="G20" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-409900</v>
+        <v>-394100</v>
       </c>
       <c r="E21" s="3">
-        <v>-121800</v>
+        <v>-117200</v>
       </c>
       <c r="F21" s="3">
-        <v>-95500</v>
+        <v>-91900</v>
       </c>
       <c r="G21" s="3">
-        <v>-69900</v>
+        <v>-67200</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1123,13 +1123,13 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="E22" s="3">
         <v>1700</v>
       </c>
       <c r="F22" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-428100</v>
+        <v>-411400</v>
       </c>
       <c r="E23" s="3">
-        <v>-134800</v>
+        <v>-129500</v>
       </c>
       <c r="F23" s="3">
-        <v>-103900</v>
+        <v>-99900</v>
       </c>
       <c r="G23" s="3">
-        <v>-73800</v>
+        <v>-70900</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1192,7 +1192,7 @@
         <v>-800</v>
       </c>
       <c r="E24" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="F24" s="3">
         <v>-300</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-427300</v>
+        <v>-410600</v>
       </c>
       <c r="E26" s="3">
-        <v>-134000</v>
+        <v>-128800</v>
       </c>
       <c r="F26" s="3">
-        <v>-103700</v>
+        <v>-99600</v>
       </c>
       <c r="G26" s="3">
-        <v>-73900</v>
+        <v>-71100</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-427300</v>
+        <v>-410600</v>
       </c>
       <c r="E27" s="3">
-        <v>-134000</v>
+        <v>-128800</v>
       </c>
       <c r="F27" s="3">
-        <v>-103700</v>
+        <v>-99600</v>
       </c>
       <c r="G27" s="3">
-        <v>-73900</v>
+        <v>-71100</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1600</v>
+        <v>-1500</v>
       </c>
       <c r="E32" s="3">
-        <v>19100</v>
+        <v>18300</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
       </c>
       <c r="G32" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-427300</v>
+        <v>-410600</v>
       </c>
       <c r="E33" s="3">
-        <v>-134000</v>
+        <v>-128800</v>
       </c>
       <c r="F33" s="3">
-        <v>-103700</v>
+        <v>-99600</v>
       </c>
       <c r="G33" s="3">
-        <v>-73900</v>
+        <v>-71100</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-427300</v>
+        <v>-410600</v>
       </c>
       <c r="E35" s="3">
-        <v>-134000</v>
+        <v>-128800</v>
       </c>
       <c r="F35" s="3">
-        <v>-103700</v>
+        <v>-99600</v>
       </c>
       <c r="G35" s="3">
-        <v>-73900</v>
+        <v>-71100</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>842200</v>
+        <v>809400</v>
       </c>
       <c r="E41" s="3">
-        <v>1372700</v>
+        <v>1319200</v>
       </c>
       <c r="F41" s="3">
-        <v>31800</v>
+        <v>30600</v>
       </c>
       <c r="G41" s="3">
-        <v>22200</v>
+        <v>21300</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4800</v>
+        <v>4600</v>
       </c>
       <c r="E42" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="F42" s="3">
         <v>1500</v>
       </c>
       <c r="G42" s="3">
-        <v>40700</v>
+        <v>39200</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19200</v>
+        <v>18500</v>
       </c>
       <c r="E43" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F43" s="3">
-        <v>18400</v>
+        <v>17600</v>
       </c>
       <c r="G43" s="3">
-        <v>8900</v>
+        <v>8600</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1752,16 +1752,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>58300</v>
+        <v>56000</v>
       </c>
       <c r="E44" s="3">
-        <v>15100</v>
+        <v>14500</v>
       </c>
       <c r="F44" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="G44" s="3">
-        <v>3100</v>
+        <v>2900</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1785,13 +1785,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>51100</v>
+        <v>49100</v>
       </c>
       <c r="E45" s="3">
-        <v>50100</v>
+        <v>48200</v>
       </c>
       <c r="F45" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="G45" s="3">
         <v>900</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>975600</v>
+        <v>937600</v>
       </c>
       <c r="E46" s="3">
-        <v>1442500</v>
+        <v>1386200</v>
       </c>
       <c r="F46" s="3">
-        <v>59300</v>
+        <v>57000</v>
       </c>
       <c r="G46" s="3">
-        <v>75800</v>
+        <v>72900</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1854,13 +1854,13 @@
         <v>1100</v>
       </c>
       <c r="E47" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F47" s="3">
         <v>1000</v>
       </c>
       <c r="G47" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>208000</v>
+        <v>199900</v>
       </c>
       <c r="E48" s="3">
-        <v>104400</v>
+        <v>100300</v>
       </c>
       <c r="F48" s="3">
-        <v>64000</v>
+        <v>61500</v>
       </c>
       <c r="G48" s="3">
-        <v>42000</v>
+        <v>40400</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,16 +1917,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13700</v>
+        <v>13200</v>
       </c>
       <c r="E49" s="3">
-        <v>14700</v>
+        <v>14100</v>
       </c>
       <c r="F49" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="G49" s="3">
-        <v>6400</v>
+        <v>6200</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E52" s="3">
-        <v>6000</v>
+        <v>5700</v>
       </c>
       <c r="F52" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="G52" s="3">
-        <v>5400</v>
+        <v>5100</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1202100</v>
+        <v>1155200</v>
       </c>
       <c r="E54" s="3">
-        <v>1568600</v>
+        <v>1507400</v>
       </c>
       <c r="F54" s="3">
-        <v>135600</v>
+        <v>130300</v>
       </c>
       <c r="G54" s="3">
-        <v>130400</v>
+        <v>125300</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>132500</v>
+        <v>127400</v>
       </c>
       <c r="E57" s="3">
-        <v>22500</v>
+        <v>21600</v>
       </c>
       <c r="F57" s="3">
-        <v>5500</v>
+        <v>5300</v>
       </c>
       <c r="G57" s="3">
-        <v>9400</v>
+        <v>9000</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,13 +2178,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E58" s="3">
-        <v>3400</v>
+        <v>3200</v>
       </c>
       <c r="F58" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>235100</v>
+        <v>226000</v>
       </c>
       <c r="E59" s="3">
-        <v>231100</v>
+        <v>222100</v>
       </c>
       <c r="F59" s="3">
-        <v>21500</v>
+        <v>20700</v>
       </c>
       <c r="G59" s="3">
-        <v>19700</v>
+        <v>19000</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>371300</v>
+        <v>356800</v>
       </c>
       <c r="E60" s="3">
-        <v>257000</v>
+        <v>247000</v>
       </c>
       <c r="F60" s="3">
-        <v>29200</v>
+        <v>28000</v>
       </c>
       <c r="G60" s="3">
-        <v>29200</v>
+        <v>28100</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,13 +2277,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>26400</v>
+        <v>25400</v>
       </c>
       <c r="E61" s="3">
-        <v>54000</v>
+        <v>51900</v>
       </c>
       <c r="F61" s="3">
-        <v>80100</v>
+        <v>76900</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>89900</v>
+        <v>86400</v>
       </c>
       <c r="E62" s="3">
-        <v>519300</v>
+        <v>499000</v>
       </c>
       <c r="F62" s="3">
-        <v>70800</v>
+        <v>68000</v>
       </c>
       <c r="G62" s="3">
-        <v>67900</v>
+        <v>65300</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>487600</v>
+        <v>468500</v>
       </c>
       <c r="E66" s="3">
-        <v>830300</v>
+        <v>797900</v>
       </c>
       <c r="F66" s="3">
-        <v>180000</v>
+        <v>173000</v>
       </c>
       <c r="G66" s="3">
-        <v>97100</v>
+        <v>93300</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>697300</v>
+        <v>670100</v>
       </c>
       <c r="E72" s="3">
-        <v>715800</v>
+        <v>687800</v>
       </c>
       <c r="F72" s="3">
-        <v>-45200</v>
+        <v>-43400</v>
       </c>
       <c r="G72" s="3">
-        <v>32600</v>
+        <v>31300</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>714600</v>
+        <v>686700</v>
       </c>
       <c r="E76" s="3">
-        <v>738300</v>
+        <v>709500</v>
       </c>
       <c r="F76" s="3">
-        <v>-44400</v>
+        <v>-42700</v>
       </c>
       <c r="G76" s="3">
-        <v>33300</v>
+        <v>32000</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-427300</v>
+        <v>-410600</v>
       </c>
       <c r="E81" s="3">
-        <v>-134000</v>
+        <v>-128800</v>
       </c>
       <c r="F81" s="3">
-        <v>-103700</v>
+        <v>-99600</v>
       </c>
       <c r="G81" s="3">
-        <v>-73900</v>
+        <v>-71100</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16300</v>
+        <v>15600</v>
       </c>
       <c r="E83" s="3">
-        <v>11100</v>
+        <v>10600</v>
       </c>
       <c r="F83" s="3">
-        <v>7400</v>
+        <v>7100</v>
       </c>
       <c r="G83" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-760900</v>
+        <v>-731200</v>
       </c>
       <c r="E89" s="3">
-        <v>542200</v>
+        <v>521000</v>
       </c>
       <c r="F89" s="3">
-        <v>-90300</v>
+        <v>-86700</v>
       </c>
       <c r="G89" s="3">
-        <v>-76900</v>
+        <v>-73900</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-128900</v>
+        <v>-123900</v>
       </c>
       <c r="E91" s="3">
-        <v>-37700</v>
+        <v>-36200</v>
       </c>
       <c r="F91" s="3">
-        <v>-11600</v>
+        <v>-11100</v>
       </c>
       <c r="G91" s="3">
-        <v>-9800</v>
+        <v>-9400</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-132700</v>
+        <v>-127600</v>
       </c>
       <c r="E94" s="3">
-        <v>-47000</v>
+        <v>-45200</v>
       </c>
       <c r="F94" s="3">
-        <v>29200</v>
+        <v>28100</v>
       </c>
       <c r="G94" s="3">
-        <v>-4400</v>
+        <v>-4300</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,13 +3431,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>358000</v>
+        <v>344100</v>
       </c>
       <c r="E100" s="3">
-        <v>850900</v>
+        <v>817700</v>
       </c>
       <c r="F100" s="3">
-        <v>70600</v>
+        <v>67800</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
@@ -3464,10 +3464,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="E101" s="3">
-        <v>-5200</v>
+        <v>-5000</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-530500</v>
+        <v>-509800</v>
       </c>
       <c r="E102" s="3">
-        <v>1340900</v>
+        <v>1288600</v>
       </c>
       <c r="F102" s="3">
-        <v>9700</v>
+        <v>9300</v>
       </c>
       <c r="G102" s="3">
-        <v>-81200</v>
+        <v>-78100</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CVAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVAC_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>102700</v>
+        <v>105100</v>
       </c>
       <c r="E8" s="3">
-        <v>48700</v>
+        <v>49900</v>
       </c>
       <c r="F8" s="3">
-        <v>17400</v>
+        <v>17800</v>
       </c>
       <c r="G8" s="3">
-        <v>12800</v>
+        <v>13100</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>237600</v>
+        <v>243100</v>
       </c>
       <c r="E9" s="3">
-        <v>14100</v>
+        <v>14500</v>
       </c>
       <c r="F9" s="3">
-        <v>27900</v>
+        <v>28600</v>
       </c>
       <c r="G9" s="3">
-        <v>17700</v>
+        <v>18100</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-134900</v>
+        <v>-138000</v>
       </c>
       <c r="E10" s="3">
-        <v>34600</v>
+        <v>35400</v>
       </c>
       <c r="F10" s="3">
-        <v>-10500</v>
+        <v>-10800</v>
       </c>
       <c r="G10" s="3">
-        <v>-4900</v>
+        <v>-5000</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>809500</v>
+        <v>828500</v>
       </c>
       <c r="E12" s="3">
-        <v>110900</v>
+        <v>113500</v>
       </c>
       <c r="F12" s="3">
-        <v>42700</v>
+        <v>43700</v>
       </c>
       <c r="G12" s="3">
-        <v>40500</v>
+        <v>41400</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -898,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-66200</v>
+        <v>-67800</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -931,13 +931,13 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>13200</v>
+        <v>13500</v>
       </c>
       <c r="E15" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="F15" s="3">
-        <v>2800</v>
+        <v>2900</v>
       </c>
       <c r="G15" s="3">
         <v>2900</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>513900</v>
+        <v>526000</v>
       </c>
       <c r="E17" s="3">
-        <v>158300</v>
+        <v>162000</v>
       </c>
       <c r="F17" s="3">
-        <v>116600</v>
+        <v>119300</v>
       </c>
       <c r="G17" s="3">
-        <v>85500</v>
+        <v>87500</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-411200</v>
+        <v>-420800</v>
       </c>
       <c r="E18" s="3">
-        <v>-109500</v>
+        <v>-112100</v>
       </c>
       <c r="F18" s="3">
-        <v>-99200</v>
+        <v>-101600</v>
       </c>
       <c r="G18" s="3">
-        <v>-72600</v>
+        <v>-74300</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1060,7 +1060,7 @@
         <v>1500</v>
       </c>
       <c r="E20" s="3">
-        <v>-18300</v>
+        <v>-18800</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-394100</v>
+        <v>-403600</v>
       </c>
       <c r="E21" s="3">
-        <v>-117200</v>
+        <v>-120200</v>
       </c>
       <c r="F21" s="3">
-        <v>-91900</v>
+        <v>-94200</v>
       </c>
       <c r="G21" s="3">
-        <v>-67200</v>
+        <v>-68800</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1123,7 +1123,7 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E22" s="3">
         <v>1700</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-411400</v>
+        <v>-421100</v>
       </c>
       <c r="E23" s="3">
-        <v>-129500</v>
+        <v>-132500</v>
       </c>
       <c r="F23" s="3">
-        <v>-99900</v>
+        <v>-102200</v>
       </c>
       <c r="G23" s="3">
-        <v>-70900</v>
+        <v>-72600</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-410600</v>
+        <v>-420300</v>
       </c>
       <c r="E26" s="3">
-        <v>-128800</v>
+        <v>-131800</v>
       </c>
       <c r="F26" s="3">
-        <v>-99600</v>
+        <v>-102000</v>
       </c>
       <c r="G26" s="3">
-        <v>-71100</v>
+        <v>-72700</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-410600</v>
+        <v>-420300</v>
       </c>
       <c r="E27" s="3">
-        <v>-128800</v>
+        <v>-131800</v>
       </c>
       <c r="F27" s="3">
-        <v>-99600</v>
+        <v>-102000</v>
       </c>
       <c r="G27" s="3">
-        <v>-71100</v>
+        <v>-72700</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1456,7 +1456,7 @@
         <v>-1500</v>
       </c>
       <c r="E32" s="3">
-        <v>18300</v>
+        <v>18800</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-410600</v>
+        <v>-420300</v>
       </c>
       <c r="E33" s="3">
-        <v>-128800</v>
+        <v>-131800</v>
       </c>
       <c r="F33" s="3">
-        <v>-99600</v>
+        <v>-102000</v>
       </c>
       <c r="G33" s="3">
-        <v>-71100</v>
+        <v>-72700</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-410600</v>
+        <v>-420300</v>
       </c>
       <c r="E35" s="3">
-        <v>-128800</v>
+        <v>-131800</v>
       </c>
       <c r="F35" s="3">
-        <v>-99600</v>
+        <v>-102000</v>
       </c>
       <c r="G35" s="3">
-        <v>-71100</v>
+        <v>-72700</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>809400</v>
+        <v>828300</v>
       </c>
       <c r="E41" s="3">
-        <v>1319200</v>
+        <v>1350100</v>
       </c>
       <c r="F41" s="3">
-        <v>30600</v>
+        <v>31300</v>
       </c>
       <c r="G41" s="3">
-        <v>21300</v>
+        <v>21800</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4600</v>
+        <v>4700</v>
       </c>
       <c r="E42" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="F42" s="3">
         <v>1500</v>
       </c>
       <c r="G42" s="3">
-        <v>39200</v>
+        <v>40100</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>18500</v>
+        <v>18900</v>
       </c>
       <c r="E43" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F43" s="3">
-        <v>17600</v>
+        <v>18100</v>
       </c>
       <c r="G43" s="3">
-        <v>8600</v>
+        <v>8800</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1752,16 +1752,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>56000</v>
+        <v>57300</v>
       </c>
       <c r="E44" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="F44" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="G44" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1785,13 +1785,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>49100</v>
+        <v>50300</v>
       </c>
       <c r="E45" s="3">
-        <v>48200</v>
+        <v>49300</v>
       </c>
       <c r="F45" s="3">
-        <v>1100</v>
+        <v>1200</v>
       </c>
       <c r="G45" s="3">
         <v>900</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>937600</v>
+        <v>959600</v>
       </c>
       <c r="E46" s="3">
-        <v>1386200</v>
+        <v>1418800</v>
       </c>
       <c r="F46" s="3">
-        <v>57000</v>
+        <v>58400</v>
       </c>
       <c r="G46" s="3">
-        <v>72900</v>
+        <v>74600</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1854,13 +1854,13 @@
         <v>1100</v>
       </c>
       <c r="E47" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="F47" s="3">
         <v>1000</v>
       </c>
       <c r="G47" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>199900</v>
+        <v>204600</v>
       </c>
       <c r="E48" s="3">
-        <v>100300</v>
+        <v>102700</v>
       </c>
       <c r="F48" s="3">
-        <v>61500</v>
+        <v>63000</v>
       </c>
       <c r="G48" s="3">
-        <v>40400</v>
+        <v>41300</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,16 +1917,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13200</v>
+        <v>13500</v>
       </c>
       <c r="E49" s="3">
-        <v>14100</v>
+        <v>14400</v>
       </c>
       <c r="F49" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="G49" s="3">
-        <v>6200</v>
+        <v>6300</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E52" s="3">
-        <v>5700</v>
+        <v>5900</v>
       </c>
       <c r="F52" s="3">
-        <v>5100</v>
+        <v>5200</v>
       </c>
       <c r="G52" s="3">
-        <v>5100</v>
+        <v>5300</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1155200</v>
+        <v>1182300</v>
       </c>
       <c r="E54" s="3">
-        <v>1507400</v>
+        <v>1542800</v>
       </c>
       <c r="F54" s="3">
-        <v>130300</v>
+        <v>133300</v>
       </c>
       <c r="G54" s="3">
-        <v>125300</v>
+        <v>128300</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>127400</v>
+        <v>130400</v>
       </c>
       <c r="E57" s="3">
-        <v>21600</v>
+        <v>22100</v>
       </c>
       <c r="F57" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="G57" s="3">
-        <v>9000</v>
+        <v>9200</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2181,7 +2181,7 @@
         <v>3500</v>
       </c>
       <c r="E58" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="F58" s="3">
         <v>2000</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>226000</v>
+        <v>231300</v>
       </c>
       <c r="E59" s="3">
-        <v>222100</v>
+        <v>227300</v>
       </c>
       <c r="F59" s="3">
-        <v>20700</v>
+        <v>21200</v>
       </c>
       <c r="G59" s="3">
-        <v>19000</v>
+        <v>19400</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>356800</v>
+        <v>365200</v>
       </c>
       <c r="E60" s="3">
-        <v>247000</v>
+        <v>252800</v>
       </c>
       <c r="F60" s="3">
-        <v>28000</v>
+        <v>28700</v>
       </c>
       <c r="G60" s="3">
-        <v>28100</v>
+        <v>28700</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,13 +2277,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>25400</v>
+        <v>26000</v>
       </c>
       <c r="E61" s="3">
-        <v>51900</v>
+        <v>53100</v>
       </c>
       <c r="F61" s="3">
-        <v>76900</v>
+        <v>78700</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>86400</v>
+        <v>88400</v>
       </c>
       <c r="E62" s="3">
-        <v>499000</v>
+        <v>510800</v>
       </c>
       <c r="F62" s="3">
-        <v>68000</v>
+        <v>69600</v>
       </c>
       <c r="G62" s="3">
-        <v>65300</v>
+        <v>66800</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>468500</v>
+        <v>479500</v>
       </c>
       <c r="E66" s="3">
-        <v>797900</v>
+        <v>816600</v>
       </c>
       <c r="F66" s="3">
-        <v>173000</v>
+        <v>177000</v>
       </c>
       <c r="G66" s="3">
-        <v>93300</v>
+        <v>95500</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>670100</v>
+        <v>685800</v>
       </c>
       <c r="E72" s="3">
-        <v>687800</v>
+        <v>704000</v>
       </c>
       <c r="F72" s="3">
-        <v>-43400</v>
+        <v>-44500</v>
       </c>
       <c r="G72" s="3">
-        <v>31300</v>
+        <v>32000</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>686700</v>
+        <v>702800</v>
       </c>
       <c r="E76" s="3">
-        <v>709500</v>
+        <v>726100</v>
       </c>
       <c r="F76" s="3">
-        <v>-42700</v>
+        <v>-43700</v>
       </c>
       <c r="G76" s="3">
-        <v>32000</v>
+        <v>32800</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-410600</v>
+        <v>-420300</v>
       </c>
       <c r="E81" s="3">
-        <v>-128800</v>
+        <v>-131800</v>
       </c>
       <c r="F81" s="3">
-        <v>-99600</v>
+        <v>-102000</v>
       </c>
       <c r="G81" s="3">
-        <v>-71100</v>
+        <v>-72700</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>15600</v>
+        <v>16000</v>
       </c>
       <c r="E83" s="3">
-        <v>10600</v>
+        <v>10900</v>
       </c>
       <c r="F83" s="3">
-        <v>7100</v>
+        <v>7300</v>
       </c>
       <c r="G83" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-731200</v>
+        <v>-748400</v>
       </c>
       <c r="E89" s="3">
-        <v>521000</v>
+        <v>533300</v>
       </c>
       <c r="F89" s="3">
-        <v>-86700</v>
+        <v>-88800</v>
       </c>
       <c r="G89" s="3">
-        <v>-73900</v>
+        <v>-75700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-123900</v>
+        <v>-126800</v>
       </c>
       <c r="E91" s="3">
-        <v>-36200</v>
+        <v>-37100</v>
       </c>
       <c r="F91" s="3">
-        <v>-11100</v>
+        <v>-11400</v>
       </c>
       <c r="G91" s="3">
-        <v>-9400</v>
+        <v>-9600</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-127600</v>
+        <v>-130600</v>
       </c>
       <c r="E94" s="3">
-        <v>-45200</v>
+        <v>-46200</v>
       </c>
       <c r="F94" s="3">
-        <v>28100</v>
+        <v>28800</v>
       </c>
       <c r="G94" s="3">
-        <v>-4300</v>
+        <v>-4400</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,13 +3431,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>344100</v>
+        <v>352100</v>
       </c>
       <c r="E100" s="3">
-        <v>817700</v>
+        <v>836900</v>
       </c>
       <c r="F100" s="3">
-        <v>67800</v>
+        <v>69400</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
@@ -3464,10 +3464,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>4900</v>
+        <v>5000</v>
       </c>
       <c r="E101" s="3">
-        <v>-5000</v>
+        <v>-5200</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-509800</v>
+        <v>-521800</v>
       </c>
       <c r="E102" s="3">
-        <v>1288600</v>
+        <v>1318800</v>
       </c>
       <c r="F102" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="G102" s="3">
-        <v>-78100</v>
+        <v>-79900</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CVAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVAC_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>105100</v>
+        <v>109000</v>
       </c>
       <c r="E8" s="3">
-        <v>49900</v>
+        <v>51700</v>
       </c>
       <c r="F8" s="3">
-        <v>17800</v>
+        <v>18400</v>
       </c>
       <c r="G8" s="3">
-        <v>13100</v>
+        <v>13600</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>243100</v>
+        <v>252000</v>
       </c>
       <c r="E9" s="3">
-        <v>14500</v>
+        <v>15000</v>
       </c>
       <c r="F9" s="3">
-        <v>28600</v>
+        <v>29600</v>
       </c>
       <c r="G9" s="3">
-        <v>18100</v>
+        <v>18800</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -784,16 +784,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-138000</v>
+        <v>-143000</v>
       </c>
       <c r="E10" s="3">
-        <v>35400</v>
+        <v>36700</v>
       </c>
       <c r="F10" s="3">
-        <v>-10800</v>
+        <v>-11200</v>
       </c>
       <c r="G10" s="3">
-        <v>-5000</v>
+        <v>-5200</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>828500</v>
+        <v>858700</v>
       </c>
       <c r="E12" s="3">
-        <v>113500</v>
+        <v>117700</v>
       </c>
       <c r="F12" s="3">
-        <v>43700</v>
+        <v>45200</v>
       </c>
       <c r="G12" s="3">
-        <v>41400</v>
+        <v>42900</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -898,7 +898,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-67800</v>
+        <v>-70200</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>3</v>
@@ -931,16 +931,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="E15" s="3">
-        <v>8900</v>
+        <v>9200</v>
       </c>
       <c r="F15" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="G15" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>526000</v>
+        <v>545100</v>
       </c>
       <c r="E17" s="3">
-        <v>162000</v>
+        <v>167900</v>
       </c>
       <c r="F17" s="3">
-        <v>119300</v>
+        <v>123700</v>
       </c>
       <c r="G17" s="3">
-        <v>87500</v>
+        <v>90700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-420800</v>
+        <v>-436200</v>
       </c>
       <c r="E18" s="3">
-        <v>-112100</v>
+        <v>-116200</v>
       </c>
       <c r="F18" s="3">
-        <v>-101600</v>
+        <v>-105300</v>
       </c>
       <c r="G18" s="3">
-        <v>-74300</v>
+        <v>-77000</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,16 +1057,16 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="E20" s="3">
-        <v>-18800</v>
+        <v>-19400</v>
       </c>
       <c r="F20" s="3">
         <v>200</v>
       </c>
       <c r="G20" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-403600</v>
+        <v>-418100</v>
       </c>
       <c r="E21" s="3">
-        <v>-120200</v>
+        <v>-124400</v>
       </c>
       <c r="F21" s="3">
-        <v>-94200</v>
+        <v>-97500</v>
       </c>
       <c r="G21" s="3">
-        <v>-68800</v>
+        <v>-71300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1126,10 +1126,10 @@
         <v>1800</v>
       </c>
       <c r="E22" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="F22" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-421100</v>
+        <v>-436400</v>
       </c>
       <c r="E23" s="3">
-        <v>-132500</v>
+        <v>-137400</v>
       </c>
       <c r="F23" s="3">
-        <v>-102200</v>
+        <v>-105900</v>
       </c>
       <c r="G23" s="3">
-        <v>-72600</v>
+        <v>-75300</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1192,7 +1192,7 @@
         <v>-800</v>
       </c>
       <c r="E24" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="F24" s="3">
         <v>-300</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-420300</v>
+        <v>-435600</v>
       </c>
       <c r="E26" s="3">
-        <v>-131800</v>
+        <v>-136600</v>
       </c>
       <c r="F26" s="3">
-        <v>-102000</v>
+        <v>-105700</v>
       </c>
       <c r="G26" s="3">
-        <v>-72700</v>
+        <v>-75400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-420300</v>
+        <v>-435600</v>
       </c>
       <c r="E27" s="3">
-        <v>-131800</v>
+        <v>-136600</v>
       </c>
       <c r="F27" s="3">
-        <v>-102000</v>
+        <v>-105700</v>
       </c>
       <c r="G27" s="3">
-        <v>-72700</v>
+        <v>-75400</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,16 +1453,16 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E32" s="3">
-        <v>18800</v>
+        <v>19400</v>
       </c>
       <c r="F32" s="3">
         <v>-200</v>
       </c>
       <c r="G32" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-420300</v>
+        <v>-435600</v>
       </c>
       <c r="E33" s="3">
-        <v>-131800</v>
+        <v>-136600</v>
       </c>
       <c r="F33" s="3">
-        <v>-102000</v>
+        <v>-105700</v>
       </c>
       <c r="G33" s="3">
-        <v>-72700</v>
+        <v>-75400</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-420300</v>
+        <v>-435600</v>
       </c>
       <c r="E35" s="3">
-        <v>-131800</v>
+        <v>-136600</v>
       </c>
       <c r="F35" s="3">
-        <v>-102000</v>
+        <v>-105700</v>
       </c>
       <c r="G35" s="3">
-        <v>-72700</v>
+        <v>-75400</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>828300</v>
+        <v>858500</v>
       </c>
       <c r="E41" s="3">
-        <v>1350100</v>
+        <v>1399300</v>
       </c>
       <c r="F41" s="3">
-        <v>31300</v>
+        <v>32500</v>
       </c>
       <c r="G41" s="3">
-        <v>21800</v>
+        <v>22600</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1686,16 +1686,16 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="E42" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="F42" s="3">
         <v>1500</v>
       </c>
       <c r="G42" s="3">
-        <v>40100</v>
+        <v>41500</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>18900</v>
+        <v>19600</v>
       </c>
       <c r="E43" s="3">
         <v>1900</v>
       </c>
       <c r="F43" s="3">
-        <v>18100</v>
+        <v>18700</v>
       </c>
       <c r="G43" s="3">
-        <v>8800</v>
+        <v>9100</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1752,16 +1752,16 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>57300</v>
+        <v>59400</v>
       </c>
       <c r="E44" s="3">
-        <v>14800</v>
+        <v>15400</v>
       </c>
       <c r="F44" s="3">
-        <v>6300</v>
+        <v>6600</v>
       </c>
       <c r="G44" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
@@ -1785,10 +1785,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>50300</v>
+        <v>52100</v>
       </c>
       <c r="E45" s="3">
-        <v>49300</v>
+        <v>51100</v>
       </c>
       <c r="F45" s="3">
         <v>1200</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>959600</v>
+        <v>994500</v>
       </c>
       <c r="E46" s="3">
-        <v>1418800</v>
+        <v>1470500</v>
       </c>
       <c r="F46" s="3">
-        <v>58400</v>
+        <v>60500</v>
       </c>
       <c r="G46" s="3">
-        <v>74600</v>
+        <v>77300</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>204600</v>
+        <v>212000</v>
       </c>
       <c r="E48" s="3">
-        <v>102700</v>
+        <v>106400</v>
       </c>
       <c r="F48" s="3">
-        <v>63000</v>
+        <v>65300</v>
       </c>
       <c r="G48" s="3">
-        <v>41300</v>
+        <v>42800</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,16 +1917,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>13500</v>
+        <v>14000</v>
       </c>
       <c r="E49" s="3">
-        <v>14400</v>
+        <v>15000</v>
       </c>
       <c r="F49" s="3">
-        <v>5800</v>
+        <v>6000</v>
       </c>
       <c r="G49" s="3">
-        <v>6300</v>
+        <v>6600</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
@@ -2016,16 +2016,16 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="E52" s="3">
-        <v>5900</v>
+        <v>6100</v>
       </c>
       <c r="F52" s="3">
-        <v>5200</v>
+        <v>5400</v>
       </c>
       <c r="G52" s="3">
-        <v>5300</v>
+        <v>5500</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1182300</v>
+        <v>1225400</v>
       </c>
       <c r="E54" s="3">
-        <v>1542800</v>
+        <v>1599000</v>
       </c>
       <c r="F54" s="3">
-        <v>133300</v>
+        <v>138200</v>
       </c>
       <c r="G54" s="3">
-        <v>128300</v>
+        <v>132900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>130400</v>
+        <v>135100</v>
       </c>
       <c r="E57" s="3">
-        <v>22100</v>
+        <v>22900</v>
       </c>
       <c r="F57" s="3">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="G57" s="3">
-        <v>9200</v>
+        <v>9600</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,13 +2178,13 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>3500</v>
+        <v>3700</v>
       </c>
       <c r="E58" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="F58" s="3">
-        <v>2000</v>
+        <v>2100</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>231300</v>
+        <v>239700</v>
       </c>
       <c r="E59" s="3">
-        <v>227300</v>
+        <v>235600</v>
       </c>
       <c r="F59" s="3">
-        <v>21200</v>
+        <v>22000</v>
       </c>
       <c r="G59" s="3">
-        <v>19400</v>
+        <v>20100</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>365200</v>
+        <v>378500</v>
       </c>
       <c r="E60" s="3">
-        <v>252800</v>
+        <v>262000</v>
       </c>
       <c r="F60" s="3">
-        <v>28700</v>
+        <v>29700</v>
       </c>
       <c r="G60" s="3">
-        <v>28700</v>
+        <v>29800</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,13 +2277,13 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>26000</v>
+        <v>26900</v>
       </c>
       <c r="E61" s="3">
-        <v>53100</v>
+        <v>55100</v>
       </c>
       <c r="F61" s="3">
-        <v>78700</v>
+        <v>81600</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>88400</v>
+        <v>91600</v>
       </c>
       <c r="E62" s="3">
-        <v>510800</v>
+        <v>529400</v>
       </c>
       <c r="F62" s="3">
-        <v>69600</v>
+        <v>72100</v>
       </c>
       <c r="G62" s="3">
-        <v>66800</v>
+        <v>69200</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>479500</v>
+        <v>497000</v>
       </c>
       <c r="E66" s="3">
-        <v>816600</v>
+        <v>846400</v>
       </c>
       <c r="F66" s="3">
-        <v>177000</v>
+        <v>183500</v>
       </c>
       <c r="G66" s="3">
-        <v>95500</v>
+        <v>99000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>685800</v>
+        <v>710800</v>
       </c>
       <c r="E72" s="3">
-        <v>704000</v>
+        <v>729600</v>
       </c>
       <c r="F72" s="3">
-        <v>-44500</v>
+        <v>-46100</v>
       </c>
       <c r="G72" s="3">
-        <v>32000</v>
+        <v>33200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>702800</v>
+        <v>728400</v>
       </c>
       <c r="E76" s="3">
-        <v>726100</v>
+        <v>752600</v>
       </c>
       <c r="F76" s="3">
-        <v>-43700</v>
+        <v>-45300</v>
       </c>
       <c r="G76" s="3">
-        <v>32800</v>
+        <v>33900</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-420300</v>
+        <v>-435600</v>
       </c>
       <c r="E81" s="3">
-        <v>-131800</v>
+        <v>-136600</v>
       </c>
       <c r="F81" s="3">
-        <v>-102000</v>
+        <v>-105700</v>
       </c>
       <c r="G81" s="3">
-        <v>-72700</v>
+        <v>-75400</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16000</v>
+        <v>16600</v>
       </c>
       <c r="E83" s="3">
-        <v>10900</v>
+        <v>11300</v>
       </c>
       <c r="F83" s="3">
-        <v>7300</v>
+        <v>7600</v>
       </c>
       <c r="G83" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-748400</v>
+        <v>-775600</v>
       </c>
       <c r="E89" s="3">
-        <v>533300</v>
+        <v>552700</v>
       </c>
       <c r="F89" s="3">
-        <v>-88800</v>
+        <v>-92000</v>
       </c>
       <c r="G89" s="3">
-        <v>-75700</v>
+        <v>-78400</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-126800</v>
+        <v>-131400</v>
       </c>
       <c r="E91" s="3">
-        <v>-37100</v>
+        <v>-38400</v>
       </c>
       <c r="F91" s="3">
-        <v>-11400</v>
+        <v>-11800</v>
       </c>
       <c r="G91" s="3">
-        <v>-9600</v>
+        <v>-10000</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-130600</v>
+        <v>-135300</v>
       </c>
       <c r="E94" s="3">
-        <v>-46200</v>
+        <v>-47900</v>
       </c>
       <c r="F94" s="3">
-        <v>28800</v>
+        <v>29800</v>
       </c>
       <c r="G94" s="3">
-        <v>-4400</v>
+        <v>-4500</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,13 +3431,13 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>352100</v>
+        <v>365000</v>
       </c>
       <c r="E100" s="3">
-        <v>836900</v>
+        <v>867400</v>
       </c>
       <c r="F100" s="3">
-        <v>69400</v>
+        <v>71900</v>
       </c>
       <c r="G100" s="3">
         <v>-100</v>
@@ -3464,10 +3464,10 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5000</v>
+        <v>5200</v>
       </c>
       <c r="E101" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-521800</v>
+        <v>-540800</v>
       </c>
       <c r="E102" s="3">
-        <v>1318800</v>
+        <v>1366800</v>
       </c>
       <c r="F102" s="3">
-        <v>9500</v>
+        <v>9800</v>
       </c>
       <c r="G102" s="3">
-        <v>-79900</v>
+        <v>-82800</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CVAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVAC_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,26 +711,29 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>109000</v>
+        <v>72600</v>
       </c>
       <c r="E8" s="3">
-        <v>51700</v>
+        <v>110900</v>
       </c>
       <c r="F8" s="3">
-        <v>18400</v>
+        <v>52600</v>
       </c>
       <c r="G8" s="3">
-        <v>13600</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>18800</v>
+      </c>
+      <c r="H8" s="3">
+        <v>13900</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -744,26 +747,29 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>252000</v>
+        <v>171300</v>
       </c>
       <c r="E9" s="3">
-        <v>15000</v>
+        <v>256500</v>
       </c>
       <c r="F9" s="3">
-        <v>29600</v>
+        <v>15300</v>
       </c>
       <c r="G9" s="3">
-        <v>18800</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>30100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>19100</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -777,27 +783,30 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-143000</v>
+        <v>-98700</v>
       </c>
       <c r="E10" s="3">
-        <v>36700</v>
+        <v>-145600</v>
       </c>
       <c r="F10" s="3">
-        <v>-11200</v>
+        <v>37400</v>
       </c>
       <c r="G10" s="3">
+        <v>-11400</v>
+      </c>
+      <c r="H10" s="3">
         <v>-5200</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,25 +838,26 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>858700</v>
+        <v>58000</v>
       </c>
       <c r="E12" s="3">
-        <v>117700</v>
+        <v>874100</v>
       </c>
       <c r="F12" s="3">
-        <v>45200</v>
+        <v>119800</v>
       </c>
       <c r="G12" s="3">
-        <v>42900</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+        <v>46100</v>
+      </c>
+      <c r="H12" s="3">
+        <v>43700</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,17 +907,20 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-70200</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
+        <v>26400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>-71500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -918,32 +937,35 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>14000</v>
+        <v>21900</v>
       </c>
       <c r="E15" s="3">
-        <v>9200</v>
+        <v>14300</v>
       </c>
       <c r="F15" s="3">
-        <v>3000</v>
+        <v>9400</v>
       </c>
       <c r="G15" s="3">
         <v>3000</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+      <c r="H15" s="3">
+        <v>3100</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -957,9 +979,12 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,25 +995,26 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>545100</v>
+        <v>341200</v>
       </c>
       <c r="E17" s="3">
-        <v>167900</v>
+        <v>554900</v>
       </c>
       <c r="F17" s="3">
-        <v>123700</v>
+        <v>170900</v>
       </c>
       <c r="G17" s="3">
-        <v>90700</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>125900</v>
+      </c>
+      <c r="H17" s="3">
+        <v>92300</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1002,26 +1028,29 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-436200</v>
+        <v>-268600</v>
       </c>
       <c r="E18" s="3">
-        <v>-116200</v>
+        <v>-444000</v>
       </c>
       <c r="F18" s="3">
-        <v>-105300</v>
+        <v>-118300</v>
       </c>
       <c r="G18" s="3">
-        <v>-77000</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>-107100</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-78400</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,26 +1083,27 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
-        <v>-19400</v>
-      </c>
       <c r="F20" s="3">
+        <v>-19800</v>
+      </c>
+      <c r="G20" s="3">
         <v>200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>1800</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1083,26 +1116,29 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-418100</v>
+        <v>-240200</v>
       </c>
       <c r="E21" s="3">
-        <v>-124400</v>
+        <v>-425400</v>
       </c>
       <c r="F21" s="3">
-        <v>-97500</v>
+        <v>-126500</v>
       </c>
       <c r="G21" s="3">
-        <v>-71300</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>-99200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-72500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1116,24 +1152,27 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F22" s="3">
         <v>1800</v>
       </c>
-      <c r="E22" s="3">
-        <v>1800</v>
-      </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>900</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1149,26 +1188,29 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-436400</v>
+        <v>-268300</v>
       </c>
       <c r="E23" s="3">
-        <v>-137400</v>
+        <v>-444200</v>
       </c>
       <c r="F23" s="3">
-        <v>-105900</v>
+        <v>-139800</v>
       </c>
       <c r="G23" s="3">
-        <v>-75300</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>-107800</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-76600</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1182,27 +1224,30 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-800</v>
+        <v>-100</v>
       </c>
       <c r="E24" s="3">
         <v>-800</v>
       </c>
       <c r="F24" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G24" s="3">
         <v>-300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,26 +1296,29 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-435600</v>
+        <v>-268200</v>
       </c>
       <c r="E26" s="3">
-        <v>-136600</v>
+        <v>-443400</v>
       </c>
       <c r="F26" s="3">
-        <v>-105700</v>
+        <v>-139100</v>
       </c>
       <c r="G26" s="3">
-        <v>-75400</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>-107600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-76700</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1281,26 +1332,29 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-435600</v>
+        <v>-268200</v>
       </c>
       <c r="E27" s="3">
-        <v>-136600</v>
+        <v>-443400</v>
       </c>
       <c r="F27" s="3">
-        <v>-105700</v>
+        <v>-139100</v>
       </c>
       <c r="G27" s="3">
-        <v>-75400</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>-107600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-76700</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,27 +1512,30 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
-        <v>19400</v>
-      </c>
       <c r="F32" s="3">
+        <v>19800</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-1800</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1479,26 +1548,29 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-435600</v>
+        <v>-268200</v>
       </c>
       <c r="E33" s="3">
-        <v>-136600</v>
+        <v>-443400</v>
       </c>
       <c r="F33" s="3">
-        <v>-105700</v>
+        <v>-139100</v>
       </c>
       <c r="G33" s="3">
-        <v>-75400</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>-107600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-76700</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,26 +1620,29 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-435600</v>
+        <v>-268200</v>
       </c>
       <c r="E35" s="3">
-        <v>-136600</v>
+        <v>-443400</v>
       </c>
       <c r="F35" s="3">
-        <v>-105700</v>
+        <v>-139100</v>
       </c>
       <c r="G35" s="3">
-        <v>-75400</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>-107600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-76700</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1578,32 +1656,35 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,25 +1732,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>858500</v>
+        <v>533900</v>
       </c>
       <c r="E41" s="3">
-        <v>1399300</v>
+        <v>873900</v>
       </c>
       <c r="F41" s="3">
-        <v>32500</v>
+        <v>1424300</v>
       </c>
       <c r="G41" s="3">
-        <v>22600</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>33000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>23000</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1679,26 +1765,29 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4900</v>
+        <v>2100</v>
       </c>
       <c r="E42" s="3">
-        <v>2800</v>
+        <v>2100</v>
       </c>
       <c r="F42" s="3">
-        <v>1500</v>
+        <v>500</v>
       </c>
       <c r="G42" s="3">
-        <v>41500</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+        <v>500</v>
+      </c>
+      <c r="H42" s="3">
+        <v>42000</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1712,26 +1801,29 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>19600</v>
+        <v>12400</v>
       </c>
       <c r="E43" s="3">
-        <v>1900</v>
+        <v>22800</v>
       </c>
       <c r="F43" s="3">
-        <v>18700</v>
+        <v>4300</v>
       </c>
       <c r="G43" s="3">
-        <v>9100</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>20200</v>
+      </c>
+      <c r="H43" s="3">
+        <v>9500</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1745,26 +1837,29 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>59400</v>
+        <v>25800</v>
       </c>
       <c r="E44" s="3">
-        <v>15400</v>
+        <v>60500</v>
       </c>
       <c r="F44" s="3">
-        <v>6600</v>
+        <v>15600</v>
       </c>
       <c r="G44" s="3">
-        <v>3100</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
+        <v>6700</v>
+      </c>
+      <c r="H44" s="3">
+        <v>3200</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
@@ -1778,27 +1873,30 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>52100</v>
+        <v>54700</v>
       </c>
       <c r="E45" s="3">
-        <v>51100</v>
+        <v>53000</v>
       </c>
       <c r="F45" s="3">
+        <v>52000</v>
+      </c>
+      <c r="G45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1811,26 +1909,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>994500</v>
+        <v>628900</v>
       </c>
       <c r="E46" s="3">
-        <v>1470500</v>
+        <v>1012300</v>
       </c>
       <c r="F46" s="3">
-        <v>60500</v>
+        <v>1496700</v>
       </c>
       <c r="G46" s="3">
-        <v>77300</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>61600</v>
+      </c>
+      <c r="H46" s="3">
+        <v>78700</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1844,27 +1945,30 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>300</v>
+      </c>
+      <c r="E47" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F47" s="3">
         <v>1100</v>
       </c>
-      <c r="E47" s="3">
-        <v>1100</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>1000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>800</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,26 +1981,29 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>212000</v>
+        <v>260300</v>
       </c>
       <c r="E48" s="3">
-        <v>106400</v>
+        <v>215800</v>
       </c>
       <c r="F48" s="3">
-        <v>65300</v>
+        <v>108300</v>
       </c>
       <c r="G48" s="3">
-        <v>42800</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>66400</v>
+      </c>
+      <c r="H48" s="3">
+        <v>43600</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1910,26 +2017,29 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>14000</v>
+        <v>34200</v>
       </c>
       <c r="E49" s="3">
-        <v>15000</v>
+        <v>14300</v>
       </c>
       <c r="F49" s="3">
-        <v>6000</v>
+        <v>15200</v>
       </c>
       <c r="G49" s="3">
-        <v>6600</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>6100</v>
+      </c>
+      <c r="H49" s="3">
+        <v>6700</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,26 +2125,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>3700</v>
+        <v>2900</v>
       </c>
       <c r="E52" s="3">
-        <v>6100</v>
+        <v>3800</v>
       </c>
       <c r="F52" s="3">
-        <v>5400</v>
+        <v>6200</v>
       </c>
       <c r="G52" s="3">
         <v>5500</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>5600</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,26 +2197,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1225400</v>
+        <v>926600</v>
       </c>
       <c r="E54" s="3">
-        <v>1599000</v>
+        <v>1247300</v>
       </c>
       <c r="F54" s="3">
-        <v>138200</v>
+        <v>1627600</v>
       </c>
       <c r="G54" s="3">
-        <v>132900</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>140700</v>
+      </c>
+      <c r="H54" s="3">
+        <v>135300</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,25 +2268,26 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>135100</v>
+        <v>79100</v>
       </c>
       <c r="E57" s="3">
-        <v>22900</v>
+        <v>137500</v>
       </c>
       <c r="F57" s="3">
-        <v>5600</v>
+        <v>23400</v>
       </c>
       <c r="G57" s="3">
-        <v>9600</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>5700</v>
+      </c>
+      <c r="H57" s="3">
+        <v>9700</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2171,27 +2301,30 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E58" s="3">
         <v>3700</v>
       </c>
-      <c r="E58" s="3">
-        <v>3400</v>
-      </c>
       <c r="F58" s="3">
-        <v>2100</v>
+        <v>3500</v>
       </c>
       <c r="G58" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2204,26 +2337,29 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>239700</v>
+        <v>83800</v>
       </c>
       <c r="E59" s="3">
-        <v>235600</v>
+        <v>244000</v>
       </c>
       <c r="F59" s="3">
-        <v>22000</v>
+        <v>239800</v>
       </c>
       <c r="G59" s="3">
-        <v>20100</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>22300</v>
+      </c>
+      <c r="H59" s="3">
+        <v>20500</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2237,26 +2373,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>378500</v>
+        <v>168200</v>
       </c>
       <c r="E60" s="3">
-        <v>262000</v>
+        <v>385200</v>
       </c>
       <c r="F60" s="3">
-        <v>29700</v>
+        <v>266700</v>
       </c>
       <c r="G60" s="3">
-        <v>29800</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>30200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>30300</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2270,23 +2409,26 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>26900</v>
+        <v>40000</v>
       </c>
       <c r="E61" s="3">
-        <v>55100</v>
+        <v>27400</v>
       </c>
       <c r="F61" s="3">
-        <v>81600</v>
+        <v>56000</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>83100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2303,26 +2445,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>91600</v>
+        <v>144200</v>
       </c>
       <c r="E62" s="3">
-        <v>529400</v>
+        <v>93300</v>
       </c>
       <c r="F62" s="3">
-        <v>72100</v>
+        <v>538800</v>
       </c>
       <c r="G62" s="3">
-        <v>69200</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>73400</v>
+      </c>
+      <c r="H62" s="3">
+        <v>70500</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,26 +2589,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>497000</v>
+        <v>352400</v>
       </c>
       <c r="E66" s="3">
-        <v>846400</v>
+        <v>505900</v>
       </c>
       <c r="F66" s="3">
-        <v>183500</v>
+        <v>861500</v>
       </c>
       <c r="G66" s="3">
-        <v>99000</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>186800</v>
+      </c>
+      <c r="H66" s="3">
+        <v>100800</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,26 +2785,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>710800</v>
+        <v>550800</v>
       </c>
       <c r="E72" s="3">
-        <v>729600</v>
+        <v>723500</v>
       </c>
       <c r="F72" s="3">
-        <v>-46100</v>
+        <v>742700</v>
       </c>
       <c r="G72" s="3">
-        <v>33200</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-46900</v>
+      </c>
+      <c r="H72" s="3">
+        <v>33800</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,26 +2929,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>728400</v>
+        <v>574300</v>
       </c>
       <c r="E76" s="3">
-        <v>752600</v>
+        <v>741400</v>
       </c>
       <c r="F76" s="3">
-        <v>-45300</v>
+        <v>766000</v>
       </c>
       <c r="G76" s="3">
-        <v>33900</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>-46100</v>
+      </c>
+      <c r="H76" s="3">
+        <v>34600</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,32 +3001,35 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,26 +3042,29 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-435600</v>
+        <v>-268200</v>
       </c>
       <c r="E81" s="3">
-        <v>-136600</v>
+        <v>-443400</v>
       </c>
       <c r="F81" s="3">
-        <v>-105700</v>
+        <v>-139100</v>
       </c>
       <c r="G81" s="3">
-        <v>-75400</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>-107600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-76700</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,25 +3097,26 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>16600</v>
+        <v>25600</v>
       </c>
       <c r="E83" s="3">
-        <v>11300</v>
+        <v>16900</v>
       </c>
       <c r="F83" s="3">
-        <v>7600</v>
+        <v>11500</v>
       </c>
       <c r="G83" s="3">
-        <v>4000</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>7700</v>
+      </c>
+      <c r="H83" s="3">
+        <v>4100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,26 +3310,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-775600</v>
+        <v>-308200</v>
       </c>
       <c r="E89" s="3">
-        <v>552700</v>
+        <v>-789500</v>
       </c>
       <c r="F89" s="3">
-        <v>-92000</v>
+        <v>562600</v>
       </c>
       <c r="G89" s="3">
-        <v>-78400</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>-93700</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-79800</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,25 +3365,26 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-131400</v>
+        <v>-94800</v>
       </c>
       <c r="E91" s="3">
-        <v>-38400</v>
+        <v>-133800</v>
       </c>
       <c r="F91" s="3">
-        <v>-11800</v>
+        <v>-39100</v>
       </c>
       <c r="G91" s="3">
-        <v>-10000</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-12000</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-10100</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,26 +3470,29 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-135300</v>
+        <v>-100700</v>
       </c>
       <c r="E94" s="3">
-        <v>-47900</v>
+        <v>-137700</v>
       </c>
       <c r="F94" s="3">
-        <v>29800</v>
+        <v>-48800</v>
       </c>
       <c r="G94" s="3">
-        <v>-4500</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>30300</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-4600</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,27 +3666,30 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>365000</v>
+        <v>68000</v>
       </c>
       <c r="E100" s="3">
-        <v>867400</v>
+        <v>371500</v>
       </c>
       <c r="F100" s="3">
-        <v>71900</v>
+        <v>882900</v>
       </c>
       <c r="G100" s="3">
+        <v>73200</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3457,27 +3702,30 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>5200</v>
+        <v>900</v>
       </c>
       <c r="E101" s="3">
-        <v>-5300</v>
+        <v>5300</v>
       </c>
       <c r="F101" s="3">
+        <v>-5400</v>
+      </c>
+      <c r="G101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3490,26 +3738,29 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-540800</v>
+        <v>-339900</v>
       </c>
       <c r="E102" s="3">
-        <v>1366800</v>
+        <v>-550400</v>
       </c>
       <c r="F102" s="3">
-        <v>9800</v>
+        <v>1391300</v>
       </c>
       <c r="G102" s="3">
-        <v>-82800</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>10000</v>
+      </c>
+      <c r="H102" s="3">
+        <v>-84300</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/CVAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVAC_YR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>72600</v>
+        <v>73100</v>
       </c>
       <c r="E8" s="3">
-        <v>110900</v>
+        <v>111700</v>
       </c>
       <c r="F8" s="3">
-        <v>52600</v>
+        <v>53000</v>
       </c>
       <c r="G8" s="3">
-        <v>18800</v>
+        <v>18900</v>
       </c>
       <c r="H8" s="3">
-        <v>13900</v>
+        <v>14000</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>171300</v>
+        <v>172400</v>
       </c>
       <c r="E9" s="3">
-        <v>256500</v>
+        <v>258200</v>
       </c>
       <c r="F9" s="3">
-        <v>15300</v>
+        <v>15400</v>
       </c>
       <c r="G9" s="3">
-        <v>30100</v>
+        <v>30300</v>
       </c>
       <c r="H9" s="3">
-        <v>19100</v>
+        <v>19200</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-98700</v>
+        <v>-99300</v>
       </c>
       <c r="E10" s="3">
-        <v>-145600</v>
+        <v>-146600</v>
       </c>
       <c r="F10" s="3">
-        <v>37400</v>
+        <v>37600</v>
       </c>
       <c r="G10" s="3">
-        <v>-11400</v>
+        <v>-11500</v>
       </c>
       <c r="H10" s="3">
-        <v>-5200</v>
+        <v>-5300</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>58000</v>
+        <v>58400</v>
       </c>
       <c r="E12" s="3">
-        <v>874100</v>
+        <v>879900</v>
       </c>
       <c r="F12" s="3">
-        <v>119800</v>
+        <v>120600</v>
       </c>
       <c r="G12" s="3">
-        <v>46100</v>
+        <v>46400</v>
       </c>
       <c r="H12" s="3">
-        <v>43700</v>
+        <v>44000</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -917,10 +917,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>26400</v>
+        <v>26600</v>
       </c>
       <c r="E14" s="3">
-        <v>-71500</v>
+        <v>-72000</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -953,16 +953,16 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>21900</v>
+        <v>22100</v>
       </c>
       <c r="E15" s="3">
-        <v>14300</v>
+        <v>14400</v>
       </c>
       <c r="F15" s="3">
         <v>9400</v>
       </c>
       <c r="G15" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H15" s="3">
         <v>3100</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>341200</v>
+        <v>343500</v>
       </c>
       <c r="E17" s="3">
-        <v>554900</v>
+        <v>558600</v>
       </c>
       <c r="F17" s="3">
-        <v>170900</v>
+        <v>172000</v>
       </c>
       <c r="G17" s="3">
-        <v>125900</v>
+        <v>126700</v>
       </c>
       <c r="H17" s="3">
-        <v>92300</v>
+        <v>92900</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-268600</v>
+        <v>-270400</v>
       </c>
       <c r="E18" s="3">
-        <v>-444000</v>
+        <v>-446900</v>
       </c>
       <c r="F18" s="3">
-        <v>-118300</v>
+        <v>-119100</v>
       </c>
       <c r="G18" s="3">
-        <v>-107100</v>
+        <v>-107900</v>
       </c>
       <c r="H18" s="3">
-        <v>-78400</v>
+        <v>-78900</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1096,7 +1096,7 @@
         <v>1600</v>
       </c>
       <c r="F20" s="3">
-        <v>-19800</v>
+        <v>-19900</v>
       </c>
       <c r="G20" s="3">
         <v>200</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-240200</v>
+        <v>-242000</v>
       </c>
       <c r="E21" s="3">
-        <v>-425400</v>
+        <v>-428300</v>
       </c>
       <c r="F21" s="3">
-        <v>-126500</v>
+        <v>-127400</v>
       </c>
       <c r="G21" s="3">
-        <v>-99200</v>
+        <v>-99900</v>
       </c>
       <c r="H21" s="3">
-        <v>-72500</v>
+        <v>-73000</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-268300</v>
+        <v>-270100</v>
       </c>
       <c r="E23" s="3">
-        <v>-444200</v>
+        <v>-447200</v>
       </c>
       <c r="F23" s="3">
-        <v>-139800</v>
+        <v>-140800</v>
       </c>
       <c r="G23" s="3">
-        <v>-107800</v>
+        <v>-108500</v>
       </c>
       <c r="H23" s="3">
-        <v>-76600</v>
+        <v>-77100</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-268200</v>
+        <v>-270000</v>
       </c>
       <c r="E26" s="3">
-        <v>-443400</v>
+        <v>-446300</v>
       </c>
       <c r="F26" s="3">
-        <v>-139100</v>
+        <v>-140000</v>
       </c>
       <c r="G26" s="3">
-        <v>-107600</v>
+        <v>-108300</v>
       </c>
       <c r="H26" s="3">
-        <v>-76700</v>
+        <v>-77200</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-268200</v>
+        <v>-270000</v>
       </c>
       <c r="E27" s="3">
-        <v>-443400</v>
+        <v>-446300</v>
       </c>
       <c r="F27" s="3">
-        <v>-139100</v>
+        <v>-140000</v>
       </c>
       <c r="G27" s="3">
-        <v>-107600</v>
+        <v>-108300</v>
       </c>
       <c r="H27" s="3">
-        <v>-76700</v>
+        <v>-77200</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1528,7 +1528,7 @@
         <v>-1600</v>
       </c>
       <c r="F32" s="3">
-        <v>19800</v>
+        <v>19900</v>
       </c>
       <c r="G32" s="3">
         <v>-200</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-268200</v>
+        <v>-270000</v>
       </c>
       <c r="E33" s="3">
-        <v>-443400</v>
+        <v>-446300</v>
       </c>
       <c r="F33" s="3">
-        <v>-139100</v>
+        <v>-140000</v>
       </c>
       <c r="G33" s="3">
-        <v>-107600</v>
+        <v>-108300</v>
       </c>
       <c r="H33" s="3">
-        <v>-76700</v>
+        <v>-77200</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-268200</v>
+        <v>-270000</v>
       </c>
       <c r="E35" s="3">
-        <v>-443400</v>
+        <v>-446300</v>
       </c>
       <c r="F35" s="3">
-        <v>-139100</v>
+        <v>-140000</v>
       </c>
       <c r="G35" s="3">
-        <v>-107600</v>
+        <v>-108300</v>
       </c>
       <c r="H35" s="3">
-        <v>-76700</v>
+        <v>-77200</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>533900</v>
+        <v>537500</v>
       </c>
       <c r="E41" s="3">
-        <v>873900</v>
+        <v>879700</v>
       </c>
       <c r="F41" s="3">
-        <v>1424300</v>
+        <v>1433800</v>
       </c>
       <c r="G41" s="3">
-        <v>33000</v>
+        <v>33300</v>
       </c>
       <c r="H41" s="3">
-        <v>23000</v>
+        <v>23200</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1787,7 +1787,7 @@
         <v>500</v>
       </c>
       <c r="H42" s="3">
-        <v>42000</v>
+        <v>42300</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>12400</v>
+        <v>12500</v>
       </c>
       <c r="E43" s="3">
-        <v>22800</v>
+        <v>23000</v>
       </c>
       <c r="F43" s="3">
         <v>4300</v>
       </c>
       <c r="G43" s="3">
-        <v>20200</v>
+        <v>20300</v>
       </c>
       <c r="H43" s="3">
-        <v>9500</v>
+        <v>9600</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1847,13 +1847,13 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>25800</v>
+        <v>26000</v>
       </c>
       <c r="E44" s="3">
-        <v>60500</v>
+        <v>60900</v>
       </c>
       <c r="F44" s="3">
-        <v>15600</v>
+        <v>15800</v>
       </c>
       <c r="G44" s="3">
         <v>6700</v>
@@ -1883,13 +1883,13 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>54700</v>
+        <v>55000</v>
       </c>
       <c r="E45" s="3">
-        <v>53000</v>
+        <v>53400</v>
       </c>
       <c r="F45" s="3">
-        <v>52000</v>
+        <v>52400</v>
       </c>
       <c r="G45" s="3">
         <v>1200</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>628900</v>
+        <v>633100</v>
       </c>
       <c r="E46" s="3">
-        <v>1012300</v>
+        <v>1019100</v>
       </c>
       <c r="F46" s="3">
-        <v>1496700</v>
+        <v>1506700</v>
       </c>
       <c r="G46" s="3">
-        <v>61600</v>
+        <v>62000</v>
       </c>
       <c r="H46" s="3">
-        <v>78700</v>
+        <v>79200</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>260300</v>
+        <v>262000</v>
       </c>
       <c r="E48" s="3">
-        <v>215800</v>
+        <v>217200</v>
       </c>
       <c r="F48" s="3">
-        <v>108300</v>
+        <v>109000</v>
       </c>
       <c r="G48" s="3">
-        <v>66400</v>
+        <v>66900</v>
       </c>
       <c r="H48" s="3">
-        <v>43600</v>
+        <v>43900</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,16 +2027,16 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>34200</v>
+        <v>34500</v>
       </c>
       <c r="E49" s="3">
-        <v>14300</v>
+        <v>14400</v>
       </c>
       <c r="F49" s="3">
-        <v>15200</v>
+        <v>15300</v>
       </c>
       <c r="G49" s="3">
-        <v>6100</v>
+        <v>6200</v>
       </c>
       <c r="H49" s="3">
         <v>6700</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>926600</v>
+        <v>932800</v>
       </c>
       <c r="E54" s="3">
-        <v>1247300</v>
+        <v>1255700</v>
       </c>
       <c r="F54" s="3">
-        <v>1627600</v>
+        <v>1638500</v>
       </c>
       <c r="G54" s="3">
-        <v>140700</v>
+        <v>141600</v>
       </c>
       <c r="H54" s="3">
-        <v>135300</v>
+        <v>136200</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>79100</v>
+        <v>79600</v>
       </c>
       <c r="E57" s="3">
-        <v>137500</v>
+        <v>138400</v>
       </c>
       <c r="F57" s="3">
-        <v>23400</v>
+        <v>23500</v>
       </c>
       <c r="G57" s="3">
-        <v>5700</v>
+        <v>5800</v>
       </c>
       <c r="H57" s="3">
-        <v>9700</v>
+        <v>9800</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2314,7 +2314,7 @@
         <v>5400</v>
       </c>
       <c r="E58" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="F58" s="3">
         <v>3500</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>83800</v>
+        <v>84300</v>
       </c>
       <c r="E59" s="3">
-        <v>244000</v>
+        <v>245600</v>
       </c>
       <c r="F59" s="3">
-        <v>239800</v>
+        <v>241400</v>
       </c>
       <c r="G59" s="3">
-        <v>22300</v>
+        <v>22500</v>
       </c>
       <c r="H59" s="3">
-        <v>20500</v>
+        <v>20600</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>168200</v>
+        <v>169400</v>
       </c>
       <c r="E60" s="3">
-        <v>385200</v>
+        <v>387800</v>
       </c>
       <c r="F60" s="3">
-        <v>266700</v>
+        <v>268400</v>
       </c>
       <c r="G60" s="3">
-        <v>30200</v>
+        <v>30400</v>
       </c>
       <c r="H60" s="3">
-        <v>30300</v>
+        <v>30500</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,16 +2419,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>40000</v>
+        <v>40200</v>
       </c>
       <c r="E61" s="3">
-        <v>27400</v>
+        <v>27600</v>
       </c>
       <c r="F61" s="3">
-        <v>56000</v>
+        <v>56400</v>
       </c>
       <c r="G61" s="3">
-        <v>83100</v>
+        <v>83600</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2455,19 +2455,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>144200</v>
+        <v>145100</v>
       </c>
       <c r="E62" s="3">
-        <v>93300</v>
+        <v>93900</v>
       </c>
       <c r="F62" s="3">
-        <v>538800</v>
+        <v>542400</v>
       </c>
       <c r="G62" s="3">
-        <v>73400</v>
+        <v>73900</v>
       </c>
       <c r="H62" s="3">
-        <v>70500</v>
+        <v>71000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>352400</v>
+        <v>354700</v>
       </c>
       <c r="E66" s="3">
-        <v>505900</v>
+        <v>509300</v>
       </c>
       <c r="F66" s="3">
-        <v>861500</v>
+        <v>867300</v>
       </c>
       <c r="G66" s="3">
-        <v>186800</v>
+        <v>188000</v>
       </c>
       <c r="H66" s="3">
-        <v>100800</v>
+        <v>101400</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>550800</v>
+        <v>554500</v>
       </c>
       <c r="E72" s="3">
-        <v>723500</v>
+        <v>728400</v>
       </c>
       <c r="F72" s="3">
-        <v>742700</v>
+        <v>747600</v>
       </c>
       <c r="G72" s="3">
-        <v>-46900</v>
+        <v>-47200</v>
       </c>
       <c r="H72" s="3">
-        <v>33800</v>
+        <v>34000</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>574300</v>
+        <v>578100</v>
       </c>
       <c r="E76" s="3">
-        <v>741400</v>
+        <v>746400</v>
       </c>
       <c r="F76" s="3">
-        <v>766000</v>
+        <v>771200</v>
       </c>
       <c r="G76" s="3">
-        <v>-46100</v>
+        <v>-46400</v>
       </c>
       <c r="H76" s="3">
-        <v>34600</v>
+        <v>34800</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-268200</v>
+        <v>-270000</v>
       </c>
       <c r="E81" s="3">
-        <v>-443400</v>
+        <v>-446300</v>
       </c>
       <c r="F81" s="3">
-        <v>-139100</v>
+        <v>-140000</v>
       </c>
       <c r="G81" s="3">
-        <v>-107600</v>
+        <v>-108300</v>
       </c>
       <c r="H81" s="3">
-        <v>-76700</v>
+        <v>-77200</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>25600</v>
+        <v>25700</v>
       </c>
       <c r="E83" s="3">
-        <v>16900</v>
+        <v>17000</v>
       </c>
       <c r="F83" s="3">
-        <v>11500</v>
+        <v>11600</v>
       </c>
       <c r="G83" s="3">
-        <v>7700</v>
+        <v>7800</v>
       </c>
       <c r="H83" s="3">
         <v>4100</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-308200</v>
+        <v>-310200</v>
       </c>
       <c r="E89" s="3">
-        <v>-789500</v>
+        <v>-794800</v>
       </c>
       <c r="F89" s="3">
-        <v>562600</v>
+        <v>566300</v>
       </c>
       <c r="G89" s="3">
-        <v>-93700</v>
+        <v>-94300</v>
       </c>
       <c r="H89" s="3">
-        <v>-79800</v>
+        <v>-80300</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,19 +3372,19 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-94800</v>
+        <v>-95400</v>
       </c>
       <c r="E91" s="3">
-        <v>-133800</v>
+        <v>-134700</v>
       </c>
       <c r="F91" s="3">
-        <v>-39100</v>
+        <v>-39400</v>
       </c>
       <c r="G91" s="3">
-        <v>-12000</v>
+        <v>-12100</v>
       </c>
       <c r="H91" s="3">
-        <v>-10100</v>
+        <v>-10200</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3480,16 +3480,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-100700</v>
+        <v>-101400</v>
       </c>
       <c r="E94" s="3">
-        <v>-137700</v>
+        <v>-138700</v>
       </c>
       <c r="F94" s="3">
-        <v>-48800</v>
+        <v>-49100</v>
       </c>
       <c r="G94" s="3">
-        <v>30300</v>
+        <v>30600</v>
       </c>
       <c r="H94" s="3">
         <v>-4600</v>
@@ -3676,16 +3676,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>68000</v>
+        <v>68500</v>
       </c>
       <c r="E100" s="3">
-        <v>371500</v>
+        <v>374000</v>
       </c>
       <c r="F100" s="3">
-        <v>882900</v>
+        <v>888800</v>
       </c>
       <c r="G100" s="3">
-        <v>73200</v>
+        <v>73700</v>
       </c>
       <c r="H100" s="3">
         <v>-100</v>
@@ -3715,10 +3715,10 @@
         <v>900</v>
       </c>
       <c r="E101" s="3">
-        <v>5300</v>
+        <v>5400</v>
       </c>
       <c r="F101" s="3">
-        <v>-5400</v>
+        <v>-5500</v>
       </c>
       <c r="G101" s="3">
         <v>100</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-339900</v>
+        <v>-342200</v>
       </c>
       <c r="E102" s="3">
-        <v>-550400</v>
+        <v>-554100</v>
       </c>
       <c r="F102" s="3">
-        <v>1391300</v>
+        <v>1400600</v>
       </c>
       <c r="G102" s="3">
-        <v>10000</v>
+        <v>10100</v>
       </c>
       <c r="H102" s="3">
-        <v>-84300</v>
+        <v>-84900</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/CVAC_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/CVAC_YR_FIN.xlsx
@@ -721,7 +721,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>73100</v>
+        <v>73200</v>
       </c>
       <c r="E8" s="3">
         <v>111700</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>172400</v>
+        <v>172600</v>
       </c>
       <c r="E9" s="3">
-        <v>258200</v>
+        <v>258400</v>
       </c>
       <c r="F9" s="3">
         <v>15400</v>
       </c>
       <c r="G9" s="3">
-        <v>30300</v>
+        <v>30400</v>
       </c>
       <c r="H9" s="3">
-        <v>19200</v>
+        <v>19300</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,10 +793,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-99300</v>
+        <v>-99400</v>
       </c>
       <c r="E10" s="3">
-        <v>-146600</v>
+        <v>-146700</v>
       </c>
       <c r="F10" s="3">
         <v>37600</v>
@@ -845,13 +845,13 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>58400</v>
+        <v>58500</v>
       </c>
       <c r="E12" s="3">
-        <v>879900</v>
+        <v>880600</v>
       </c>
       <c r="F12" s="3">
-        <v>120600</v>
+        <v>120700</v>
       </c>
       <c r="G12" s="3">
         <v>46400</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>343500</v>
+        <v>343800</v>
       </c>
       <c r="E17" s="3">
-        <v>558600</v>
+        <v>559000</v>
       </c>
       <c r="F17" s="3">
-        <v>172000</v>
+        <v>172200</v>
       </c>
       <c r="G17" s="3">
-        <v>126700</v>
+        <v>126900</v>
       </c>
       <c r="H17" s="3">
-        <v>92900</v>
+        <v>93000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-270400</v>
+        <v>-270700</v>
       </c>
       <c r="E18" s="3">
-        <v>-446900</v>
+        <v>-447300</v>
       </c>
       <c r="F18" s="3">
         <v>-119100</v>
       </c>
       <c r="G18" s="3">
-        <v>-107900</v>
+        <v>-108000</v>
       </c>
       <c r="H18" s="3">
-        <v>-78900</v>
+        <v>-79000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-242000</v>
+        <v>-242200</v>
       </c>
       <c r="E21" s="3">
-        <v>-428300</v>
+        <v>-428700</v>
       </c>
       <c r="F21" s="3">
-        <v>-127400</v>
+        <v>-127500</v>
       </c>
       <c r="G21" s="3">
-        <v>-99900</v>
+        <v>-100000</v>
       </c>
       <c r="H21" s="3">
-        <v>-73000</v>
+        <v>-73100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-270100</v>
+        <v>-270300</v>
       </c>
       <c r="E23" s="3">
-        <v>-447200</v>
+        <v>-447600</v>
       </c>
       <c r="F23" s="3">
-        <v>-140800</v>
+        <v>-140900</v>
       </c>
       <c r="G23" s="3">
-        <v>-108500</v>
+        <v>-108600</v>
       </c>
       <c r="H23" s="3">
-        <v>-77100</v>
+        <v>-77200</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-270000</v>
+        <v>-270200</v>
       </c>
       <c r="E26" s="3">
-        <v>-446300</v>
+        <v>-446700</v>
       </c>
       <c r="F26" s="3">
-        <v>-140000</v>
+        <v>-140100</v>
       </c>
       <c r="G26" s="3">
-        <v>-108300</v>
+        <v>-108400</v>
       </c>
       <c r="H26" s="3">
-        <v>-77200</v>
+        <v>-77300</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-270000</v>
+        <v>-270200</v>
       </c>
       <c r="E27" s="3">
-        <v>-446300</v>
+        <v>-446700</v>
       </c>
       <c r="F27" s="3">
-        <v>-140000</v>
+        <v>-140100</v>
       </c>
       <c r="G27" s="3">
-        <v>-108300</v>
+        <v>-108400</v>
       </c>
       <c r="H27" s="3">
-        <v>-77200</v>
+        <v>-77300</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-270000</v>
+        <v>-270200</v>
       </c>
       <c r="E33" s="3">
-        <v>-446300</v>
+        <v>-446700</v>
       </c>
       <c r="F33" s="3">
-        <v>-140000</v>
+        <v>-140100</v>
       </c>
       <c r="G33" s="3">
-        <v>-108300</v>
+        <v>-108400</v>
       </c>
       <c r="H33" s="3">
-        <v>-77200</v>
+        <v>-77300</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-270000</v>
+        <v>-270200</v>
       </c>
       <c r="E35" s="3">
-        <v>-446300</v>
+        <v>-446700</v>
       </c>
       <c r="F35" s="3">
-        <v>-140000</v>
+        <v>-140100</v>
       </c>
       <c r="G35" s="3">
-        <v>-108300</v>
+        <v>-108400</v>
       </c>
       <c r="H35" s="3">
-        <v>-77200</v>
+        <v>-77300</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,13 +1739,13 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>537500</v>
+        <v>537900</v>
       </c>
       <c r="E41" s="3">
-        <v>879700</v>
+        <v>880400</v>
       </c>
       <c r="F41" s="3">
-        <v>1433800</v>
+        <v>1435000</v>
       </c>
       <c r="G41" s="3">
         <v>33300</v>
@@ -1817,7 +1817,7 @@
         <v>23000</v>
       </c>
       <c r="F43" s="3">
-        <v>4300</v>
+        <v>4400</v>
       </c>
       <c r="G43" s="3">
         <v>20300</v>
@@ -1883,7 +1883,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>55000</v>
+        <v>55100</v>
       </c>
       <c r="E45" s="3">
         <v>53400</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>633100</v>
+        <v>633700</v>
       </c>
       <c r="E46" s="3">
-        <v>1019100</v>
+        <v>1019900</v>
       </c>
       <c r="F46" s="3">
-        <v>1506700</v>
+        <v>1508000</v>
       </c>
       <c r="G46" s="3">
         <v>62000</v>
       </c>
       <c r="H46" s="3">
-        <v>79200</v>
+        <v>79300</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1991,13 +1991,13 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>262000</v>
+        <v>262200</v>
       </c>
       <c r="E48" s="3">
-        <v>217200</v>
+        <v>217400</v>
       </c>
       <c r="F48" s="3">
-        <v>109000</v>
+        <v>109100</v>
       </c>
       <c r="G48" s="3">
         <v>66900</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>932800</v>
+        <v>933600</v>
       </c>
       <c r="E54" s="3">
-        <v>1255700</v>
+        <v>1256700</v>
       </c>
       <c r="F54" s="3">
-        <v>1638500</v>
+        <v>1639800</v>
       </c>
       <c r="G54" s="3">
-        <v>141600</v>
+        <v>141700</v>
       </c>
       <c r="H54" s="3">
-        <v>136200</v>
+        <v>136300</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,10 +2275,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>79600</v>
+        <v>79700</v>
       </c>
       <c r="E57" s="3">
-        <v>138400</v>
+        <v>138600</v>
       </c>
       <c r="F57" s="3">
         <v>23500</v>
@@ -2347,13 +2347,13 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>84300</v>
+        <v>84400</v>
       </c>
       <c r="E59" s="3">
-        <v>245600</v>
+        <v>245800</v>
       </c>
       <c r="F59" s="3">
-        <v>241400</v>
+        <v>241600</v>
       </c>
       <c r="G59" s="3">
         <v>22500</v>
@@ -2383,16 +2383,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>169400</v>
+        <v>169500</v>
       </c>
       <c r="E60" s="3">
-        <v>387800</v>
+        <v>388100</v>
       </c>
       <c r="F60" s="3">
-        <v>268400</v>
+        <v>268700</v>
       </c>
       <c r="G60" s="3">
-        <v>30400</v>
+        <v>30500</v>
       </c>
       <c r="H60" s="3">
         <v>30500</v>
@@ -2419,16 +2419,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>40200</v>
+        <v>40300</v>
       </c>
       <c r="E61" s="3">
         <v>27600</v>
       </c>
       <c r="F61" s="3">
-        <v>56400</v>
+        <v>56500</v>
       </c>
       <c r="G61" s="3">
-        <v>83600</v>
+        <v>83700</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2455,16 +2455,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>145100</v>
+        <v>145300</v>
       </c>
       <c r="E62" s="3">
-        <v>93900</v>
+        <v>94000</v>
       </c>
       <c r="F62" s="3">
-        <v>542400</v>
+        <v>542900</v>
       </c>
       <c r="G62" s="3">
-        <v>73900</v>
+        <v>74000</v>
       </c>
       <c r="H62" s="3">
         <v>71000</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>354700</v>
+        <v>355000</v>
       </c>
       <c r="E66" s="3">
-        <v>509300</v>
+        <v>509700</v>
       </c>
       <c r="F66" s="3">
-        <v>867300</v>
+        <v>868000</v>
       </c>
       <c r="G66" s="3">
-        <v>188000</v>
+        <v>188200</v>
       </c>
       <c r="H66" s="3">
-        <v>101400</v>
+        <v>101500</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2795,16 +2795,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>554500</v>
+        <v>554900</v>
       </c>
       <c r="E72" s="3">
-        <v>728400</v>
+        <v>729000</v>
       </c>
       <c r="F72" s="3">
-        <v>747600</v>
+        <v>748300</v>
       </c>
       <c r="G72" s="3">
-        <v>-47200</v>
+        <v>-47300</v>
       </c>
       <c r="H72" s="3">
         <v>34000</v>
@@ -2939,13 +2939,13 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>578100</v>
+        <v>578600</v>
       </c>
       <c r="E76" s="3">
-        <v>746400</v>
+        <v>747000</v>
       </c>
       <c r="F76" s="3">
-        <v>771200</v>
+        <v>771800</v>
       </c>
       <c r="G76" s="3">
         <v>-46400</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-270000</v>
+        <v>-270200</v>
       </c>
       <c r="E81" s="3">
-        <v>-446300</v>
+        <v>-446700</v>
       </c>
       <c r="F81" s="3">
-        <v>-140000</v>
+        <v>-140100</v>
       </c>
       <c r="G81" s="3">
-        <v>-108300</v>
+        <v>-108400</v>
       </c>
       <c r="H81" s="3">
-        <v>-77200</v>
+        <v>-77300</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,7 +3104,7 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>25700</v>
+        <v>25800</v>
       </c>
       <c r="E83" s="3">
         <v>17000</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-310200</v>
+        <v>-310500</v>
       </c>
       <c r="E89" s="3">
-        <v>-794800</v>
+        <v>-795400</v>
       </c>
       <c r="F89" s="3">
-        <v>566300</v>
+        <v>566800</v>
       </c>
       <c r="G89" s="3">
-        <v>-94300</v>
+        <v>-94400</v>
       </c>
       <c r="H89" s="3">
-        <v>-80300</v>
+        <v>-80400</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3372,10 +3372,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-95400</v>
+        <v>-95500</v>
       </c>
       <c r="E91" s="3">
-        <v>-134700</v>
+        <v>-134800</v>
       </c>
       <c r="F91" s="3">
         <v>-39400</v>
@@ -3483,7 +3483,7 @@
         <v>-101400</v>
       </c>
       <c r="E94" s="3">
-        <v>-138700</v>
+        <v>-138800</v>
       </c>
       <c r="F94" s="3">
         <v>-49100</v>
@@ -3679,13 +3679,13 @@
         <v>68500</v>
       </c>
       <c r="E100" s="3">
-        <v>374000</v>
+        <v>374300</v>
       </c>
       <c r="F100" s="3">
-        <v>888800</v>
+        <v>889500</v>
       </c>
       <c r="G100" s="3">
-        <v>73700</v>
+        <v>73800</v>
       </c>
       <c r="H100" s="3">
         <v>-100</v>
@@ -3748,13 +3748,13 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-342200</v>
+        <v>-342500</v>
       </c>
       <c r="E102" s="3">
-        <v>-554100</v>
+        <v>-554600</v>
       </c>
       <c r="F102" s="3">
-        <v>1400600</v>
+        <v>1401700</v>
       </c>
       <c r="G102" s="3">
         <v>10100</v>
